--- a/picks_fixtures_prediction_cloned.xlsx
+++ b/picks_fixtures_prediction_cloned.xlsx
@@ -1937,1369 +1937,1369 @@
     <t>17.2%</t>
   </si>
   <si>
+    <t>26.4%</t>
+  </si>
+  <si>
+    <t>30.6%</t>
+  </si>
+  <si>
+    <t>71.7%</t>
+  </si>
+  <si>
+    <t>38.7%</t>
+  </si>
+  <si>
+    <t>20.0%</t>
+  </si>
+  <si>
+    <t>54.7%</t>
+  </si>
+  <si>
+    <t>20.1%</t>
+  </si>
+  <si>
+    <t>51.7%</t>
+  </si>
+  <si>
+    <t>51.6%</t>
+  </si>
+  <si>
+    <t>42.8%</t>
+  </si>
+  <si>
+    <t>22.8%</t>
+  </si>
+  <si>
+    <t>64.5%</t>
+  </si>
+  <si>
+    <t>48.1%</t>
+  </si>
+  <si>
+    <t>38.0%</t>
+  </si>
+  <si>
+    <t>14.8%</t>
+  </si>
+  <si>
+    <t>10.1%</t>
+  </si>
+  <si>
+    <t>55.9%</t>
+  </si>
+  <si>
+    <t>19.0%</t>
+  </si>
+  <si>
+    <t>6.3%</t>
+  </si>
+  <si>
+    <t>64.7%</t>
+  </si>
+  <si>
+    <t>37.9%</t>
+  </si>
+  <si>
+    <t>4.7%</t>
+  </si>
+  <si>
+    <t>45.8%</t>
+  </si>
+  <si>
+    <t>28.9%</t>
+  </si>
+  <si>
+    <t>22.1%</t>
+  </si>
+  <si>
+    <t>71.4%</t>
+  </si>
+  <si>
+    <t>27.0%</t>
+  </si>
+  <si>
+    <t>22.4%</t>
+  </si>
+  <si>
+    <t>61.0%</t>
+  </si>
+  <si>
+    <t>50.8%</t>
+  </si>
+  <si>
+    <t>33.6%</t>
+  </si>
+  <si>
+    <t>32.6%</t>
+  </si>
+  <si>
+    <t>50.3%</t>
+  </si>
+  <si>
+    <t>9.2%</t>
+  </si>
+  <si>
+    <t>18.2%</t>
+  </si>
+  <si>
+    <t>81.1%</t>
+  </si>
+  <si>
+    <t>68.0%</t>
+  </si>
+  <si>
+    <t>7.4%</t>
+  </si>
+  <si>
+    <t>36.0%</t>
+  </si>
+  <si>
+    <t>19.5%</t>
+  </si>
+  <si>
+    <t>49.4%</t>
+  </si>
+  <si>
+    <t>32.1%</t>
+  </si>
+  <si>
+    <t>46.6%</t>
+  </si>
+  <si>
+    <t>79.7%</t>
+  </si>
+  <si>
+    <t>7.6%</t>
+  </si>
+  <si>
+    <t>24.8%</t>
+  </si>
+  <si>
+    <t>77.8%</t>
+  </si>
+  <si>
+    <t>10.4%</t>
+  </si>
+  <si>
+    <t>5.3%</t>
+  </si>
+  <si>
+    <t>35.7%</t>
+  </si>
+  <si>
+    <t>31.6%</t>
+  </si>
+  <si>
+    <t>12.2%</t>
+  </si>
+  <si>
+    <t>35.9%</t>
+  </si>
+  <si>
+    <t>34.0%</t>
+  </si>
+  <si>
+    <t>58.6%</t>
+  </si>
+  <si>
+    <t>57.5%</t>
+  </si>
+  <si>
+    <t>40.9%</t>
+  </si>
+  <si>
+    <t>44.4%</t>
+  </si>
+  <si>
+    <t>59.8%</t>
+  </si>
+  <si>
+    <t>69.1%</t>
+  </si>
+  <si>
+    <t>26.2%</t>
+  </si>
+  <si>
+    <t>20.7%</t>
+  </si>
+  <si>
+    <t>23.0%</t>
+  </si>
+  <si>
+    <t>24.1%</t>
+  </si>
+  <si>
+    <t>23.8%</t>
+  </si>
+  <si>
+    <t>21.6%</t>
+  </si>
+  <si>
+    <t>25.5%</t>
+  </si>
+  <si>
+    <t>26.0%</t>
+  </si>
+  <si>
+    <t>14.7%</t>
+  </si>
+  <si>
+    <t>28.4%</t>
+  </si>
+  <si>
+    <t>27.2%</t>
+  </si>
+  <si>
+    <t>27.5%</t>
+  </si>
+  <si>
+    <t>11.8%</t>
+  </si>
+  <si>
+    <t>23.9%</t>
+  </si>
+  <si>
+    <t>23.1%</t>
+  </si>
+  <si>
+    <t>23.6%</t>
+  </si>
+  <si>
+    <t>22.7%</t>
+  </si>
+  <si>
+    <t>21.0%</t>
+  </si>
+  <si>
+    <t>18.6%</t>
+  </si>
+  <si>
+    <t>28.2%</t>
+  </si>
+  <si>
+    <t>15.0%</t>
+  </si>
+  <si>
+    <t>19.6%</t>
+  </si>
+  <si>
+    <t>19.3%</t>
+  </si>
+  <si>
+    <t>7.8%</t>
+  </si>
+  <si>
+    <t>31.1%</t>
+  </si>
+  <si>
+    <t>36.5%</t>
+  </si>
+  <si>
+    <t>16.2%</t>
+  </si>
+  <si>
+    <t>1.5%</t>
+  </si>
+  <si>
+    <t>24.3%</t>
+  </si>
+  <si>
+    <t>23.2%</t>
+  </si>
+  <si>
+    <t>21.4%</t>
+  </si>
+  <si>
+    <t>18.8%</t>
+  </si>
+  <si>
+    <t>12.0%</t>
+  </si>
+  <si>
+    <t>24.6%</t>
+  </si>
+  <si>
+    <t>29.7%</t>
+  </si>
+  <si>
+    <t>5.7%</t>
+  </si>
+  <si>
+    <t>6.6%</t>
+  </si>
+  <si>
+    <t>15.4%</t>
+  </si>
+  <si>
+    <t>27.7%</t>
+  </si>
+  <si>
+    <t>23.4%</t>
+  </si>
+  <si>
+    <t>15.3%</t>
+  </si>
+  <si>
+    <t>31.9%</t>
+  </si>
+  <si>
+    <t>29.3%</t>
+  </si>
+  <si>
+    <t>27.8%</t>
+  </si>
+  <si>
+    <t>19.9%</t>
+  </si>
+  <si>
+    <t>25.7%</t>
+  </si>
+  <si>
+    <t>34.6%</t>
+  </si>
+  <si>
+    <t>26.5%</t>
+  </si>
+  <si>
+    <t>21.2%</t>
+  </si>
+  <si>
+    <t>25.6%</t>
+  </si>
+  <si>
+    <t>29.8%</t>
+  </si>
+  <si>
+    <t>9.3%</t>
+  </si>
+  <si>
+    <t>36.1%</t>
+  </si>
+  <si>
+    <t>29.9%</t>
+  </si>
+  <si>
+    <t>19.1%</t>
+  </si>
+  <si>
+    <t>28.8%</t>
+  </si>
+  <si>
+    <t>22.5%</t>
+  </si>
+  <si>
+    <t>24.9%</t>
+  </si>
+  <si>
+    <t>31.7%</t>
+  </si>
+  <si>
+    <t>13.6%</t>
+  </si>
+  <si>
+    <t>24.0%</t>
+  </si>
+  <si>
+    <t>19.7%</t>
+  </si>
+  <si>
+    <t>36.7%</t>
+  </si>
+  <si>
+    <t>31.2%</t>
+  </si>
+  <si>
+    <t>44.8%</t>
+  </si>
+  <si>
+    <t>9.9%</t>
+  </si>
+  <si>
+    <t>15.9%</t>
+  </si>
+  <si>
+    <t>37.6%</t>
+  </si>
+  <si>
+    <t>18.5%</t>
+  </si>
+  <si>
+    <t>17.7%</t>
+  </si>
+  <si>
+    <t>22.9%</t>
+  </si>
+  <si>
+    <t>25.4%</t>
+  </si>
+  <si>
+    <t>32.4%</t>
+  </si>
+  <si>
+    <t>22.3%</t>
+  </si>
+  <si>
+    <t>26.9%</t>
+  </si>
+  <si>
+    <t>32.2%</t>
+  </si>
+  <si>
+    <t>21.5%</t>
+  </si>
+  <si>
+    <t>29.4%</t>
+  </si>
+  <si>
+    <t>16.7%</t>
+  </si>
+  <si>
+    <t>48.2%</t>
+  </si>
+  <si>
+    <t>52.9%</t>
+  </si>
+  <si>
+    <t>28.3%</t>
+  </si>
+  <si>
+    <t>2.2%</t>
+  </si>
+  <si>
+    <t>16.3%</t>
+  </si>
+  <si>
+    <t>67.2%</t>
+  </si>
+  <si>
+    <t>8.2%</t>
+  </si>
+  <si>
+    <t>44.3%</t>
+  </si>
+  <si>
+    <t>45.1%</t>
+  </si>
+  <si>
+    <t>32.8%</t>
+  </si>
+  <si>
+    <t>58.9%</t>
+  </si>
+  <si>
+    <t>82.5%</t>
+  </si>
+  <si>
+    <t>4.6%</t>
+  </si>
+  <si>
+    <t>2.0%</t>
+  </si>
+  <si>
+    <t>12.8%</t>
+  </si>
+  <si>
+    <t>30.9%</t>
+  </si>
+  <si>
+    <t>69.2%</t>
+  </si>
+  <si>
+    <t>61.7%</t>
+  </si>
+  <si>
+    <t>47.3%</t>
+  </si>
+  <si>
+    <t>11.6%</t>
+  </si>
+  <si>
+    <t>44.0%</t>
+  </si>
+  <si>
+    <t>14.5%</t>
+  </si>
+  <si>
+    <t>40.7%</t>
+  </si>
+  <si>
+    <t>28.7%</t>
+  </si>
+  <si>
+    <t>50.0%</t>
+  </si>
+  <si>
+    <t>11.1%</t>
+  </si>
+  <si>
+    <t>74.5%</t>
+  </si>
+  <si>
+    <t>0.3%</t>
+  </si>
+  <si>
+    <t>5.8%</t>
+  </si>
+  <si>
+    <t>67.0%</t>
+  </si>
+  <si>
+    <t>58.2%</t>
+  </si>
+  <si>
+    <t>54.4%</t>
+  </si>
+  <si>
+    <t>57.8%</t>
+  </si>
+  <si>
+    <t>18.9%</t>
+  </si>
+  <si>
+    <t>45.3%</t>
+  </si>
+  <si>
+    <t>70.8%</t>
+  </si>
+  <si>
+    <t>48.5%</t>
+  </si>
+  <si>
+    <t>1.9%</t>
+  </si>
+  <si>
+    <t>54.0%</t>
+  </si>
+  <si>
+    <t>38.5%</t>
+  </si>
+  <si>
+    <t>44.2%</t>
+  </si>
+  <si>
+    <t>37.2%</t>
+  </si>
+  <si>
+    <t>52.1%</t>
+  </si>
+  <si>
+    <t>24.4%</t>
+  </si>
+  <si>
+    <t>53.6%</t>
+  </si>
+  <si>
+    <t>23.3%</t>
+  </si>
+  <si>
+    <t>42.6%</t>
+  </si>
+  <si>
+    <t>9.0%</t>
+  </si>
+  <si>
+    <t>36.2%</t>
+  </si>
+  <si>
+    <t>60.9%</t>
+  </si>
+  <si>
+    <t>72.0%</t>
+  </si>
+  <si>
+    <t>30.3%</t>
+  </si>
+  <si>
+    <t>60.1%</t>
+  </si>
+  <si>
+    <t>72.2%</t>
+  </si>
+  <si>
+    <t>13.2%</t>
+  </si>
+  <si>
+    <t>33.7%</t>
+  </si>
+  <si>
+    <t>80.9%</t>
+  </si>
+  <si>
+    <t>18.0%</t>
+  </si>
+  <si>
+    <t>41.1%</t>
+  </si>
+  <si>
+    <t>44.5%</t>
+  </si>
+  <si>
+    <t>9.4%</t>
+  </si>
+  <si>
+    <t>16.0%</t>
+  </si>
+  <si>
     <t>26.3%</t>
   </si>
   <si>
+    <t>44.1%</t>
+  </si>
+  <si>
+    <t>42.3%</t>
+  </si>
+  <si>
+    <t>17.9%</t>
+  </si>
+  <si>
+    <t>74.6%</t>
+  </si>
+  <si>
+    <t>57.6%</t>
+  </si>
+  <si>
+    <t>4.3%</t>
+  </si>
+  <si>
+    <t>68.1%</t>
+  </si>
+  <si>
+    <t>72.3%</t>
+  </si>
+  <si>
+    <t>40.6%</t>
+  </si>
+  <si>
+    <t>56.5%</t>
+  </si>
+  <si>
+    <t>13.8%</t>
+  </si>
+  <si>
+    <t>5.4%</t>
+  </si>
+  <si>
+    <t>75.6%</t>
+  </si>
+  <si>
+    <t>37.5%</t>
+  </si>
+  <si>
+    <t>12.1%</t>
+  </si>
+  <si>
+    <t>5.9%</t>
+  </si>
+  <si>
+    <t>71.1%</t>
+  </si>
+  <si>
+    <t>71.6%</t>
+  </si>
+  <si>
+    <t>37.0%</t>
+  </si>
+  <si>
+    <t>62.4%</t>
+  </si>
+  <si>
+    <t>43.3%</t>
+  </si>
+  <si>
+    <t>14.4%</t>
+  </si>
+  <si>
+    <t>19.8%</t>
+  </si>
+  <si>
+    <t>36.8%</t>
+  </si>
+  <si>
+    <t>12.7%</t>
+  </si>
+  <si>
+    <t>10.8%</t>
+  </si>
+  <si>
+    <t>62.8%</t>
+  </si>
+  <si>
+    <t>29.2%</t>
+  </si>
+  <si>
+    <t>28.1%</t>
+  </si>
+  <si>
+    <t>71.5%</t>
+  </si>
+  <si>
+    <t>21.9%</t>
+  </si>
+  <si>
+    <t>42.7%</t>
+  </si>
+  <si>
+    <t>6.8%</t>
+  </si>
+  <si>
+    <t>79.3%</t>
+  </si>
+  <si>
+    <t>43.9%</t>
+  </si>
+  <si>
+    <t>66.2%</t>
+  </si>
+  <si>
+    <t>50.5%</t>
+  </si>
+  <si>
+    <t>35.5%</t>
+  </si>
+  <si>
+    <t>60.0%</t>
+  </si>
+  <si>
+    <t>57.0%</t>
+  </si>
+  <si>
+    <t>42.9%</t>
+  </si>
+  <si>
+    <t>78.7%</t>
+  </si>
+  <si>
+    <t>69.7%</t>
+  </si>
+  <si>
+    <t>34.5%</t>
+  </si>
+  <si>
+    <t>32.5%</t>
+  </si>
+  <si>
+    <t>47.5%</t>
+  </si>
+  <si>
+    <t>41.8%</t>
+  </si>
+  <si>
+    <t>70.4%</t>
+  </si>
+  <si>
+    <t>54.3%</t>
+  </si>
+  <si>
+    <t>70.9%</t>
+  </si>
+  <si>
+    <t>50.7%</t>
+  </si>
+  <si>
+    <t>57.7%</t>
+  </si>
+  <si>
+    <t>60.4%</t>
+  </si>
+  <si>
+    <t>76.8%</t>
+  </si>
+  <si>
+    <t>78.1%</t>
+  </si>
+  <si>
+    <t>39.7%</t>
+  </si>
+  <si>
+    <t>62.7%</t>
+  </si>
+  <si>
+    <t>27.9%</t>
+  </si>
+  <si>
+    <t>55.2%</t>
+  </si>
+  <si>
+    <t>72.8%</t>
+  </si>
+  <si>
+    <t>37.4%</t>
+  </si>
+  <si>
+    <t>49.2%</t>
+  </si>
+  <si>
+    <t>63.9%</t>
+  </si>
+  <si>
+    <t>73.6%</t>
+  </si>
+  <si>
+    <t>48.0%</t>
+  </si>
+  <si>
+    <t>74.2%</t>
+  </si>
+  <si>
+    <t>54.2%</t>
+  </si>
+  <si>
+    <t>50.6%</t>
+  </si>
+  <si>
+    <t>70.5%</t>
+  </si>
+  <si>
+    <t>73.8%</t>
+  </si>
+  <si>
+    <t>34.2%</t>
+  </si>
+  <si>
+    <t>52.0%</t>
+  </si>
+  <si>
+    <t>71.2%</t>
+  </si>
+  <si>
+    <t>35.0%</t>
+  </si>
+  <si>
+    <t>28.5%</t>
+  </si>
+  <si>
+    <t>35.3%</t>
+  </si>
+  <si>
+    <t>71.3%</t>
+  </si>
+  <si>
+    <t>40.3%</t>
+  </si>
+  <si>
+    <t>47.7%</t>
+  </si>
+  <si>
+    <t>69.9%</t>
+  </si>
+  <si>
+    <t>51.4%</t>
+  </si>
+  <si>
+    <t>77.6%</t>
+  </si>
+  <si>
+    <t>63.4%</t>
+  </si>
+  <si>
+    <t>33.2%</t>
+  </si>
+  <si>
+    <t>40.1%</t>
+  </si>
+  <si>
+    <t>17.3%</t>
+  </si>
+  <si>
+    <t>72.5%</t>
+  </si>
+  <si>
+    <t>56.0%</t>
+  </si>
+  <si>
+    <t>47.4%</t>
+  </si>
+  <si>
+    <t>69.3%</t>
+  </si>
+  <si>
+    <t>69.8%</t>
+  </si>
+  <si>
+    <t>45.7%</t>
+  </si>
+  <si>
+    <t>63.1%</t>
+  </si>
+  <si>
+    <t>14.9%</t>
+  </si>
+  <si>
+    <t>54.1%</t>
+  </si>
+  <si>
+    <t>17.1%</t>
+  </si>
+  <si>
+    <t>56.6%</t>
+  </si>
+  <si>
+    <t>55.5%</t>
+  </si>
+  <si>
+    <t>27.6%</t>
+  </si>
+  <si>
+    <t>44.7%</t>
+  </si>
+  <si>
+    <t>76.3%</t>
+  </si>
+  <si>
+    <t>33.1%</t>
+  </si>
+  <si>
+    <t>66.8%</t>
+  </si>
+  <si>
+    <t>32.0%</t>
+  </si>
+  <si>
+    <t>54.5%</t>
+  </si>
+  <si>
+    <t>71.9%</t>
+  </si>
+  <si>
+    <t>58.8%</t>
+  </si>
+  <si>
+    <t>78.0%</t>
+  </si>
+  <si>
+    <t>57.1%</t>
+  </si>
+  <si>
+    <t>93.2%</t>
+  </si>
+  <si>
+    <t>11.0%</t>
+  </si>
+  <si>
+    <t>33.3%</t>
+  </si>
+  <si>
+    <t>64.4%</t>
+  </si>
+  <si>
+    <t>30.8%</t>
+  </si>
+  <si>
+    <t>39.8%</t>
+  </si>
+  <si>
+    <t>15.1%</t>
+  </si>
+  <si>
+    <t>25.2%</t>
+  </si>
+  <si>
+    <t>65.2%</t>
+  </si>
+  <si>
+    <t>67.3%</t>
+  </si>
+  <si>
+    <t>25.8%</t>
+  </si>
+  <si>
+    <t>64.0%</t>
+  </si>
+  <si>
+    <t>52.3%</t>
+  </si>
+  <si>
+    <t>58.0%</t>
+  </si>
+  <si>
+    <t>34.8%</t>
+  </si>
+  <si>
+    <t>45.0%</t>
+  </si>
+  <si>
+    <t>43.7%</t>
+  </si>
+  <si>
+    <t>62.3%</t>
+  </si>
+  <si>
+    <t>26.8%</t>
+  </si>
+  <si>
+    <t>49.3%</t>
+  </si>
+  <si>
+    <t>41.7%</t>
+  </si>
+  <si>
+    <t>39.3%</t>
+  </si>
+  <si>
+    <t>20.4%</t>
+  </si>
+  <si>
+    <t>81.4%</t>
+  </si>
+  <si>
+    <t>43.8%</t>
+  </si>
+  <si>
+    <t>11.2%</t>
+  </si>
+  <si>
+    <t>69.5%</t>
+  </si>
+  <si>
+    <t>62.6%</t>
+  </si>
+  <si>
+    <t>35.6%</t>
+  </si>
+  <si>
+    <t>25.0%</t>
+  </si>
+  <si>
+    <t>51.8%</t>
+  </si>
+  <si>
+    <t>48.8%</t>
+  </si>
+  <si>
+    <t>68.3%</t>
+  </si>
+  <si>
+    <t>27.1%</t>
+  </si>
+  <si>
+    <t>65.7%</t>
+  </si>
+  <si>
+    <t>26.6%</t>
+  </si>
+  <si>
+    <t>64.9%</t>
+  </si>
+  <si>
+    <t>64.6%</t>
+  </si>
+  <si>
+    <t>59.6%</t>
+  </si>
+  <si>
+    <t>55.7%</t>
+  </si>
+  <si>
+    <t>52.2%</t>
+  </si>
+  <si>
+    <t>78.5%</t>
+  </si>
+  <si>
+    <t>29.5%</t>
+  </si>
+  <si>
+    <t>59.2%</t>
+  </si>
+  <si>
+    <t>41.3%</t>
+  </si>
+  <si>
+    <t>65.0%</t>
+  </si>
+  <si>
+    <t>66.5%</t>
+  </si>
+  <si>
+    <t>53.9%</t>
+  </si>
+  <si>
+    <t>23.5%</t>
+  </si>
+  <si>
+    <t>82.6%</t>
+  </si>
+  <si>
+    <t>65.8%</t>
+  </si>
+  <si>
+    <t>62.9%</t>
+  </si>
+  <si>
+    <t>30.2%</t>
+  </si>
+  <si>
+    <t>36.6%</t>
+  </si>
+  <si>
+    <t>85.1%</t>
+  </si>
+  <si>
+    <t>70.1%</t>
+  </si>
+  <si>
+    <t>90.8%</t>
+  </si>
+  <si>
+    <t>55.1%</t>
+  </si>
+  <si>
+    <t>44.9%</t>
+  </si>
+  <si>
+    <t>82.9%</t>
+  </si>
+  <si>
+    <t>49.1%</t>
+  </si>
+  <si>
+    <t>45.2%</t>
+  </si>
+  <si>
+    <t>31.3%</t>
+  </si>
+  <si>
+    <t>7.2%</t>
+  </si>
+  <si>
+    <t>34.1%</t>
+  </si>
+  <si>
+    <t>42.0%</t>
+  </si>
+  <si>
+    <t>43.6%</t>
+  </si>
+  <si>
+    <t>13.1%</t>
+  </si>
+  <si>
+    <t>53.5%</t>
+  </si>
+  <si>
+    <t>55.0%</t>
+  </si>
+  <si>
+    <t>62.1%</t>
+  </si>
+  <si>
+    <t>30.7%</t>
+  </si>
+  <si>
+    <t>47.0%</t>
+  </si>
+  <si>
+    <t>74.0%</t>
+  </si>
+  <si>
+    <t>75.2%</t>
+  </si>
+  <si>
+    <t>33.8%</t>
+  </si>
+  <si>
+    <t>41.4%</t>
+  </si>
+  <si>
+    <t>51.3%</t>
+  </si>
+  <si>
+    <t>24.7%</t>
+  </si>
+  <si>
+    <t>36.9%</t>
+  </si>
+  <si>
+    <t>63.7%</t>
+  </si>
+  <si>
+    <t>37.1%</t>
+  </si>
+  <si>
+    <t>41.2%</t>
+  </si>
+  <si>
+    <t>49.9%</t>
+  </si>
+  <si>
+    <t>38.9%</t>
+  </si>
+  <si>
+    <t>68.5%</t>
+  </si>
+  <si>
+    <t>46.9%</t>
+  </si>
+  <si>
+    <t>22.6%</t>
+  </si>
+  <si>
+    <t>68.9%</t>
+  </si>
+  <si>
+    <t>39.1%</t>
+  </si>
+  <si>
+    <t>46.3%</t>
+  </si>
+  <si>
+    <t>73.3%</t>
+  </si>
+  <si>
+    <t>41.9%</t>
+  </si>
+  <si>
+    <t>46.4%</t>
+  </si>
+  <si>
+    <t>46.5%</t>
+  </si>
+  <si>
+    <t>68.4%</t>
+  </si>
+  <si>
+    <t>61.1%</t>
+  </si>
+  <si>
+    <t>69.0%</t>
+  </si>
+  <si>
+    <t>57.2%</t>
+  </si>
+  <si>
+    <t>28.0%</t>
+  </si>
+  <si>
+    <t>43.4%</t>
+  </si>
+  <si>
+    <t>49.0%</t>
+  </si>
+  <si>
+    <t>39.0%</t>
+  </si>
+  <si>
+    <t>32.3%</t>
+  </si>
+  <si>
+    <t>67.1%</t>
+  </si>
+  <si>
+    <t>53.3%</t>
+  </si>
+  <si>
+    <t>38.2%</t>
+  </si>
+  <si>
+    <t>68.7%</t>
+  </si>
+  <si>
+    <t>56.1%</t>
+  </si>
+  <si>
+    <t>92.7%</t>
+  </si>
+  <si>
+    <t>65.9%</t>
+  </si>
+  <si>
+    <t>86.9%</t>
+  </si>
+  <si>
+    <t>57.3%</t>
+  </si>
+  <si>
+    <t>51.5%</t>
+  </si>
+  <si>
+    <t>80.4%</t>
+  </si>
+  <si>
+    <t>74.4%</t>
+  </si>
+  <si>
+    <t>59.1%</t>
+  </si>
+  <si>
+    <t>52.7%</t>
+  </si>
+  <si>
+    <t>61.8%</t>
+  </si>
+  <si>
+    <t>34.4%</t>
+  </si>
+  <si>
+    <t>37.3%</t>
+  </si>
+  <si>
+    <t>65.3%</t>
+  </si>
+  <si>
+    <t>69.4%</t>
+  </si>
+  <si>
+    <t>66.1%</t>
+  </si>
+  <si>
+    <t>60.8%</t>
+  </si>
+  <si>
+    <t>75.1%</t>
+  </si>
+  <si>
+    <t>63.0%</t>
+  </si>
+  <si>
+    <t>59.0%</t>
+  </si>
+  <si>
+    <t>64.2%</t>
+  </si>
+  <si>
+    <t>37.7%</t>
+  </si>
+  <si>
+    <t>73.0%</t>
+  </si>
+  <si>
+    <t>71.8%</t>
+  </si>
+  <si>
+    <t>65.5%</t>
+  </si>
+  <si>
+    <t>53.0%</t>
+  </si>
+  <si>
+    <t>47.8%</t>
+  </si>
+  <si>
+    <t>77.3%</t>
+  </si>
+  <si>
+    <t>60.6%</t>
+  </si>
+  <si>
+    <t>58.1%</t>
+  </si>
+  <si>
+    <t>58.3%</t>
+  </si>
+  <si>
+    <t>48.3%</t>
+  </si>
+  <si>
+    <t>76.6%</t>
+  </si>
+  <si>
+    <t>61.6%</t>
+  </si>
+  <si>
     <t>30.5%</t>
   </si>
   <si>
-    <t>75.2%</t>
-  </si>
-  <si>
-    <t>38.6%</t>
-  </si>
-  <si>
-    <t>19.9%</t>
-  </si>
-  <si>
-    <t>54.5%</t>
-  </si>
-  <si>
-    <t>20.0%</t>
-  </si>
-  <si>
-    <t>51.5%</t>
-  </si>
-  <si>
-    <t>51.4%</t>
-  </si>
-  <si>
-    <t>22.8%</t>
-  </si>
-  <si>
-    <t>64.5%</t>
-  </si>
-  <si>
-    <t>48.1%</t>
-  </si>
-  <si>
-    <t>38.0%</t>
-  </si>
-  <si>
-    <t>14.8%</t>
-  </si>
-  <si>
-    <t>10.1%</t>
-  </si>
-  <si>
-    <t>55.9%</t>
-  </si>
-  <si>
-    <t>19.0%</t>
-  </si>
-  <si>
-    <t>6.3%</t>
-  </si>
-  <si>
-    <t>64.7%</t>
-  </si>
-  <si>
-    <t>37.9%</t>
-  </si>
-  <si>
-    <t>4.7%</t>
-  </si>
-  <si>
-    <t>45.8%</t>
-  </si>
-  <si>
-    <t>28.9%</t>
-  </si>
-  <si>
-    <t>22.1%</t>
-  </si>
-  <si>
-    <t>71.4%</t>
-  </si>
-  <si>
-    <t>27.0%</t>
-  </si>
-  <si>
-    <t>22.4%</t>
-  </si>
-  <si>
-    <t>61.0%</t>
-  </si>
-  <si>
-    <t>50.8%</t>
-  </si>
-  <si>
-    <t>33.6%</t>
-  </si>
-  <si>
-    <t>32.6%</t>
-  </si>
-  <si>
-    <t>50.3%</t>
-  </si>
-  <si>
-    <t>9.2%</t>
-  </si>
-  <si>
-    <t>18.2%</t>
-  </si>
-  <si>
-    <t>81.1%</t>
-  </si>
-  <si>
-    <t>68.0%</t>
-  </si>
-  <si>
-    <t>7.4%</t>
-  </si>
-  <si>
-    <t>36.0%</t>
-  </si>
-  <si>
-    <t>19.5%</t>
-  </si>
-  <si>
-    <t>49.4%</t>
-  </si>
-  <si>
-    <t>42.8%</t>
-  </si>
-  <si>
-    <t>32.1%</t>
-  </si>
-  <si>
-    <t>46.6%</t>
-  </si>
-  <si>
-    <t>79.7%</t>
-  </si>
-  <si>
-    <t>7.6%</t>
-  </si>
-  <si>
-    <t>24.8%</t>
-  </si>
-  <si>
-    <t>77.8%</t>
-  </si>
-  <si>
-    <t>10.4%</t>
-  </si>
-  <si>
-    <t>5.3%</t>
-  </si>
-  <si>
-    <t>35.7%</t>
-  </si>
-  <si>
-    <t>31.6%</t>
-  </si>
-  <si>
-    <t>12.2%</t>
-  </si>
-  <si>
-    <t>35.9%</t>
-  </si>
-  <si>
-    <t>34.0%</t>
-  </si>
-  <si>
-    <t>58.6%</t>
-  </si>
-  <si>
-    <t>57.5%</t>
-  </si>
-  <si>
-    <t>40.9%</t>
-  </si>
-  <si>
-    <t>44.4%</t>
-  </si>
-  <si>
-    <t>59.8%</t>
-  </si>
-  <si>
-    <t>69.1%</t>
-  </si>
-  <si>
-    <t>26.2%</t>
-  </si>
-  <si>
-    <t>20.7%</t>
-  </si>
-  <si>
-    <t>23.0%</t>
-  </si>
-  <si>
-    <t>24.1%</t>
-  </si>
-  <si>
-    <t>20.1%</t>
-  </si>
-  <si>
-    <t>23.8%</t>
-  </si>
-  <si>
-    <t>21.6%</t>
-  </si>
-  <si>
-    <t>25.5%</t>
-  </si>
-  <si>
-    <t>26.0%</t>
-  </si>
-  <si>
-    <t>14.7%</t>
-  </si>
-  <si>
-    <t>28.4%</t>
-  </si>
-  <si>
-    <t>27.2%</t>
-  </si>
-  <si>
-    <t>27.5%</t>
-  </si>
-  <si>
-    <t>11.8%</t>
-  </si>
-  <si>
-    <t>23.9%</t>
-  </si>
-  <si>
-    <t>23.1%</t>
-  </si>
-  <si>
-    <t>23.6%</t>
-  </si>
-  <si>
-    <t>22.7%</t>
-  </si>
-  <si>
-    <t>21.0%</t>
-  </si>
-  <si>
-    <t>18.6%</t>
-  </si>
-  <si>
-    <t>28.2%</t>
-  </si>
-  <si>
-    <t>15.0%</t>
-  </si>
-  <si>
-    <t>19.6%</t>
-  </si>
-  <si>
-    <t>19.3%</t>
-  </si>
-  <si>
-    <t>7.8%</t>
-  </si>
-  <si>
-    <t>31.1%</t>
-  </si>
-  <si>
-    <t>36.5%</t>
-  </si>
-  <si>
-    <t>16.2%</t>
-  </si>
-  <si>
-    <t>1.5%</t>
-  </si>
-  <si>
-    <t>24.3%</t>
-  </si>
-  <si>
-    <t>23.2%</t>
-  </si>
-  <si>
-    <t>21.4%</t>
-  </si>
-  <si>
-    <t>18.8%</t>
-  </si>
-  <si>
-    <t>12.0%</t>
-  </si>
-  <si>
-    <t>24.6%</t>
-  </si>
-  <si>
-    <t>29.7%</t>
-  </si>
-  <si>
-    <t>5.7%</t>
-  </si>
-  <si>
-    <t>6.6%</t>
-  </si>
-  <si>
-    <t>15.4%</t>
-  </si>
-  <si>
-    <t>27.7%</t>
-  </si>
-  <si>
-    <t>23.4%</t>
-  </si>
-  <si>
-    <t>15.3%</t>
-  </si>
-  <si>
-    <t>32.0%</t>
-  </si>
-  <si>
-    <t>29.4%</t>
-  </si>
-  <si>
-    <t>32.2%</t>
-  </si>
-  <si>
-    <t>17.0%</t>
-  </si>
-  <si>
-    <t>27.3%</t>
-  </si>
-  <si>
-    <t>27.8%</t>
-  </si>
-  <si>
-    <t>24.9%</t>
-  </si>
-  <si>
-    <t>25.8%</t>
-  </si>
-  <si>
-    <t>25.2%</t>
-  </si>
-  <si>
-    <t>34.6%</t>
-  </si>
-  <si>
-    <t>26.5%</t>
-  </si>
-  <si>
-    <t>21.2%</t>
-  </si>
-  <si>
-    <t>25.6%</t>
-  </si>
-  <si>
-    <t>29.8%</t>
-  </si>
-  <si>
-    <t>9.3%</t>
-  </si>
-  <si>
-    <t>36.1%</t>
-  </si>
-  <si>
-    <t>29.9%</t>
-  </si>
-  <si>
-    <t>19.1%</t>
-  </si>
-  <si>
-    <t>28.8%</t>
-  </si>
-  <si>
-    <t>22.5%</t>
-  </si>
-  <si>
-    <t>31.7%</t>
-  </si>
-  <si>
-    <t>13.6%</t>
-  </si>
-  <si>
-    <t>24.0%</t>
-  </si>
-  <si>
-    <t>19.7%</t>
-  </si>
-  <si>
-    <t>36.7%</t>
-  </si>
-  <si>
-    <t>31.2%</t>
-  </si>
-  <si>
-    <t>44.8%</t>
-  </si>
-  <si>
-    <t>9.9%</t>
-  </si>
-  <si>
-    <t>15.9%</t>
-  </si>
-  <si>
-    <t>37.6%</t>
-  </si>
-  <si>
-    <t>18.5%</t>
-  </si>
-  <si>
-    <t>17.7%</t>
-  </si>
-  <si>
-    <t>22.9%</t>
-  </si>
-  <si>
-    <t>25.4%</t>
-  </si>
-  <si>
-    <t>32.4%</t>
-  </si>
-  <si>
-    <t>22.3%</t>
-  </si>
-  <si>
-    <t>26.9%</t>
-  </si>
-  <si>
-    <t>21.5%</t>
-  </si>
-  <si>
-    <t>16.7%</t>
-  </si>
-  <si>
-    <t>48.2%</t>
-  </si>
-  <si>
-    <t>52.9%</t>
-  </si>
-  <si>
-    <t>28.3%</t>
-  </si>
-  <si>
-    <t>2.2%</t>
-  </si>
-  <si>
-    <t>16.3%</t>
-  </si>
-  <si>
-    <t>67.2%</t>
-  </si>
-  <si>
-    <t>8.2%</t>
-  </si>
-  <si>
-    <t>44.3%</t>
-  </si>
-  <si>
-    <t>45.1%</t>
-  </si>
-  <si>
-    <t>32.8%</t>
-  </si>
-  <si>
-    <t>58.9%</t>
-  </si>
-  <si>
-    <t>82.5%</t>
-  </si>
-  <si>
-    <t>4.6%</t>
-  </si>
-  <si>
-    <t>2.0%</t>
-  </si>
-  <si>
-    <t>12.8%</t>
-  </si>
-  <si>
-    <t>30.9%</t>
-  </si>
-  <si>
-    <t>69.2%</t>
-  </si>
-  <si>
-    <t>61.7%</t>
-  </si>
-  <si>
-    <t>47.3%</t>
-  </si>
-  <si>
-    <t>11.6%</t>
-  </si>
-  <si>
-    <t>44.0%</t>
-  </si>
-  <si>
-    <t>14.5%</t>
-  </si>
-  <si>
-    <t>40.7%</t>
-  </si>
-  <si>
-    <t>28.7%</t>
-  </si>
-  <si>
-    <t>50.0%</t>
-  </si>
-  <si>
-    <t>11.1%</t>
-  </si>
-  <si>
-    <t>74.5%</t>
-  </si>
-  <si>
-    <t>0.3%</t>
-  </si>
-  <si>
-    <t>5.8%</t>
-  </si>
-  <si>
-    <t>67.0%</t>
-  </si>
-  <si>
-    <t>58.2%</t>
-  </si>
-  <si>
-    <t>54.4%</t>
-  </si>
-  <si>
-    <t>57.8%</t>
-  </si>
-  <si>
-    <t>18.9%</t>
-  </si>
-  <si>
-    <t>45.3%</t>
-  </si>
-  <si>
-    <t>70.8%</t>
-  </si>
-  <si>
-    <t>48.5%</t>
-  </si>
-  <si>
-    <t>1.9%</t>
-  </si>
-  <si>
-    <t>54.0%</t>
-  </si>
-  <si>
-    <t>38.5%</t>
-  </si>
-  <si>
-    <t>37.3%</t>
-  </si>
-  <si>
-    <t>7.1%</t>
-  </si>
-  <si>
-    <t>34.1%</t>
-  </si>
-  <si>
-    <t>52.2%</t>
-  </si>
-  <si>
-    <t>53.6%</t>
-  </si>
-  <si>
-    <t>22.6%</t>
-  </si>
-  <si>
-    <t>42.6%</t>
-  </si>
-  <si>
-    <t>9.0%</t>
-  </si>
-  <si>
-    <t>36.2%</t>
-  </si>
-  <si>
-    <t>60.9%</t>
-  </si>
-  <si>
-    <t>72.0%</t>
-  </si>
-  <si>
-    <t>30.3%</t>
-  </si>
-  <si>
-    <t>60.1%</t>
-  </si>
-  <si>
-    <t>72.2%</t>
-  </si>
-  <si>
-    <t>13.2%</t>
-  </si>
-  <si>
-    <t>33.7%</t>
-  </si>
-  <si>
-    <t>80.9%</t>
-  </si>
-  <si>
-    <t>18.0%</t>
-  </si>
-  <si>
-    <t>41.1%</t>
-  </si>
-  <si>
-    <t>44.5%</t>
-  </si>
-  <si>
-    <t>9.4%</t>
-  </si>
-  <si>
-    <t>44.2%</t>
-  </si>
-  <si>
-    <t>16.0%</t>
-  </si>
-  <si>
-    <t>44.1%</t>
-  </si>
-  <si>
-    <t>42.3%</t>
-  </si>
-  <si>
-    <t>17.9%</t>
-  </si>
-  <si>
-    <t>74.6%</t>
-  </si>
-  <si>
-    <t>57.6%</t>
-  </si>
-  <si>
-    <t>4.3%</t>
-  </si>
-  <si>
-    <t>68.1%</t>
-  </si>
-  <si>
-    <t>72.3%</t>
-  </si>
-  <si>
-    <t>40.6%</t>
-  </si>
-  <si>
-    <t>56.5%</t>
-  </si>
-  <si>
-    <t>13.8%</t>
-  </si>
-  <si>
-    <t>5.4%</t>
-  </si>
-  <si>
-    <t>75.6%</t>
-  </si>
-  <si>
-    <t>37.5%</t>
-  </si>
-  <si>
-    <t>12.1%</t>
-  </si>
-  <si>
-    <t>5.9%</t>
-  </si>
-  <si>
-    <t>71.1%</t>
-  </si>
-  <si>
-    <t>71.6%</t>
-  </si>
-  <si>
-    <t>37.0%</t>
-  </si>
-  <si>
-    <t>62.4%</t>
-  </si>
-  <si>
-    <t>43.3%</t>
-  </si>
-  <si>
-    <t>14.4%</t>
-  </si>
-  <si>
-    <t>19.8%</t>
-  </si>
-  <si>
-    <t>36.8%</t>
-  </si>
-  <si>
-    <t>23.3%</t>
-  </si>
-  <si>
-    <t>12.7%</t>
-  </si>
-  <si>
-    <t>10.8%</t>
-  </si>
-  <si>
-    <t>62.8%</t>
-  </si>
-  <si>
-    <t>29.2%</t>
-  </si>
-  <si>
-    <t>28.1%</t>
-  </si>
-  <si>
-    <t>30.6%</t>
-  </si>
-  <si>
-    <t>71.5%</t>
-  </si>
-  <si>
-    <t>21.9%</t>
-  </si>
-  <si>
-    <t>42.7%</t>
-  </si>
-  <si>
-    <t>6.8%</t>
-  </si>
-  <si>
-    <t>79.3%</t>
-  </si>
-  <si>
-    <t>43.9%</t>
-  </si>
-  <si>
-    <t>66.2%</t>
-  </si>
-  <si>
-    <t>50.5%</t>
-  </si>
-  <si>
-    <t>35.5%</t>
-  </si>
-  <si>
-    <t>37.2%</t>
-  </si>
-  <si>
-    <t>51.7%</t>
-  </si>
-  <si>
-    <t>60.0%</t>
-  </si>
-  <si>
-    <t>57.0%</t>
-  </si>
-  <si>
-    <t>42.9%</t>
-  </si>
-  <si>
-    <t>78.7%</t>
-  </si>
-  <si>
-    <t>69.7%</t>
-  </si>
-  <si>
-    <t>34.5%</t>
-  </si>
-  <si>
-    <t>32.5%</t>
-  </si>
-  <si>
-    <t>47.5%</t>
-  </si>
-  <si>
-    <t>41.8%</t>
-  </si>
-  <si>
-    <t>70.4%</t>
-  </si>
-  <si>
-    <t>54.3%</t>
-  </si>
-  <si>
-    <t>70.9%</t>
-  </si>
-  <si>
-    <t>50.7%</t>
-  </si>
-  <si>
-    <t>57.7%</t>
-  </si>
-  <si>
-    <t>60.4%</t>
-  </si>
-  <si>
-    <t>76.8%</t>
-  </si>
-  <si>
-    <t>78.1%</t>
-  </si>
-  <si>
-    <t>39.7%</t>
-  </si>
-  <si>
-    <t>62.7%</t>
-  </si>
-  <si>
-    <t>27.9%</t>
-  </si>
-  <si>
-    <t>55.2%</t>
-  </si>
-  <si>
-    <t>72.8%</t>
-  </si>
-  <si>
-    <t>37.4%</t>
-  </si>
-  <si>
-    <t>49.2%</t>
-  </si>
-  <si>
-    <t>63.9%</t>
-  </si>
-  <si>
-    <t>73.6%</t>
-  </si>
-  <si>
-    <t>48.0%</t>
-  </si>
-  <si>
-    <t>74.2%</t>
-  </si>
-  <si>
-    <t>54.2%</t>
-  </si>
-  <si>
-    <t>50.6%</t>
-  </si>
-  <si>
-    <t>70.5%</t>
-  </si>
-  <si>
-    <t>73.8%</t>
-  </si>
-  <si>
-    <t>34.2%</t>
-  </si>
-  <si>
-    <t>52.0%</t>
-  </si>
-  <si>
-    <t>71.2%</t>
-  </si>
-  <si>
-    <t>34.9%</t>
-  </si>
-  <si>
-    <t>47.9%</t>
-  </si>
-  <si>
-    <t>35.2%</t>
-  </si>
-  <si>
-    <t>40.2%</t>
-  </si>
-  <si>
-    <t>48.3%</t>
-  </si>
-  <si>
-    <t>51.1%</t>
-  </si>
-  <si>
-    <t>69.9%</t>
-  </si>
-  <si>
-    <t>77.6%</t>
-  </si>
-  <si>
-    <t>35.0%</t>
-  </si>
-  <si>
-    <t>63.4%</t>
-  </si>
-  <si>
-    <t>33.2%</t>
-  </si>
-  <si>
-    <t>40.1%</t>
-  </si>
-  <si>
-    <t>17.3%</t>
-  </si>
-  <si>
-    <t>72.5%</t>
-  </si>
-  <si>
-    <t>56.0%</t>
-  </si>
-  <si>
-    <t>47.4%</t>
-  </si>
-  <si>
-    <t>69.3%</t>
-  </si>
-  <si>
-    <t>69.8%</t>
-  </si>
-  <si>
-    <t>45.7%</t>
-  </si>
-  <si>
-    <t>38.7%</t>
-  </si>
-  <si>
-    <t>63.1%</t>
-  </si>
-  <si>
-    <t>14.9%</t>
-  </si>
-  <si>
-    <t>54.1%</t>
-  </si>
-  <si>
-    <t>17.1%</t>
-  </si>
-  <si>
-    <t>56.6%</t>
-  </si>
-  <si>
-    <t>55.5%</t>
-  </si>
-  <si>
-    <t>27.6%</t>
-  </si>
-  <si>
-    <t>44.7%</t>
-  </si>
-  <si>
-    <t>76.3%</t>
-  </si>
-  <si>
-    <t>33.1%</t>
-  </si>
-  <si>
-    <t>66.8%</t>
-  </si>
-  <si>
-    <t>71.9%</t>
-  </si>
-  <si>
-    <t>58.8%</t>
-  </si>
-  <si>
-    <t>78.0%</t>
-  </si>
-  <si>
-    <t>57.1%</t>
-  </si>
-  <si>
-    <t>93.2%</t>
-  </si>
-  <si>
-    <t>11.0%</t>
-  </si>
-  <si>
-    <t>33.3%</t>
-  </si>
-  <si>
-    <t>64.4%</t>
-  </si>
-  <si>
-    <t>30.8%</t>
-  </si>
-  <si>
-    <t>39.8%</t>
-  </si>
-  <si>
-    <t>15.1%</t>
-  </si>
-  <si>
-    <t>65.2%</t>
-  </si>
-  <si>
-    <t>67.3%</t>
-  </si>
-  <si>
-    <t>64.0%</t>
-  </si>
-  <si>
-    <t>52.3%</t>
-  </si>
-  <si>
-    <t>58.0%</t>
-  </si>
-  <si>
-    <t>34.8%</t>
-  </si>
-  <si>
-    <t>45.0%</t>
-  </si>
-  <si>
-    <t>43.7%</t>
-  </si>
-  <si>
-    <t>62.3%</t>
-  </si>
-  <si>
-    <t>26.8%</t>
-  </si>
-  <si>
-    <t>49.3%</t>
-  </si>
-  <si>
-    <t>41.7%</t>
-  </si>
-  <si>
-    <t>39.3%</t>
-  </si>
-  <si>
-    <t>20.4%</t>
-  </si>
-  <si>
-    <t>81.4%</t>
-  </si>
-  <si>
-    <t>43.8%</t>
-  </si>
-  <si>
-    <t>11.2%</t>
-  </si>
-  <si>
-    <t>69.5%</t>
-  </si>
-  <si>
-    <t>62.6%</t>
-  </si>
-  <si>
-    <t>35.6%</t>
-  </si>
-  <si>
-    <t>25.0%</t>
-  </si>
-  <si>
-    <t>51.8%</t>
-  </si>
-  <si>
-    <t>48.8%</t>
-  </si>
-  <si>
-    <t>68.3%</t>
-  </si>
-  <si>
-    <t>27.1%</t>
-  </si>
-  <si>
-    <t>65.7%</t>
-  </si>
-  <si>
-    <t>47.7%</t>
-  </si>
-  <si>
-    <t>26.6%</t>
-  </si>
-  <si>
-    <t>65.0%</t>
-  </si>
-  <si>
-    <t>55.6%</t>
-  </si>
-  <si>
-    <t>59.7%</t>
-  </si>
-  <si>
-    <t>51.6%</t>
-  </si>
-  <si>
-    <t>78.5%</t>
-  </si>
-  <si>
-    <t>29.5%</t>
-  </si>
-  <si>
-    <t>59.2%</t>
-  </si>
-  <si>
-    <t>41.3%</t>
-  </si>
-  <si>
-    <t>66.5%</t>
-  </si>
-  <si>
-    <t>53.9%</t>
-  </si>
-  <si>
-    <t>23.5%</t>
-  </si>
-  <si>
-    <t>82.6%</t>
-  </si>
-  <si>
-    <t>65.8%</t>
-  </si>
-  <si>
-    <t>62.9%</t>
-  </si>
-  <si>
-    <t>30.2%</t>
-  </si>
-  <si>
-    <t>36.6%</t>
-  </si>
-  <si>
-    <t>85.1%</t>
-  </si>
-  <si>
-    <t>70.1%</t>
-  </si>
-  <si>
-    <t>90.8%</t>
-  </si>
-  <si>
-    <t>55.1%</t>
-  </si>
-  <si>
-    <t>44.9%</t>
-  </si>
-  <si>
-    <t>82.9%</t>
-  </si>
-  <si>
-    <t>49.1%</t>
-  </si>
-  <si>
-    <t>45.2%</t>
-  </si>
-  <si>
-    <t>59.6%</t>
-  </si>
-  <si>
-    <t>31.3%</t>
-  </si>
-  <si>
-    <t>7.2%</t>
-  </si>
-  <si>
-    <t>42.0%</t>
-  </si>
-  <si>
-    <t>43.6%</t>
-  </si>
-  <si>
-    <t>13.1%</t>
-  </si>
-  <si>
-    <t>64.9%</t>
-  </si>
-  <si>
-    <t>53.5%</t>
-  </si>
-  <si>
-    <t>55.0%</t>
-  </si>
-  <si>
-    <t>62.1%</t>
-  </si>
-  <si>
-    <t>30.7%</t>
-  </si>
-  <si>
-    <t>47.0%</t>
-  </si>
-  <si>
-    <t>74.0%</t>
-  </si>
-  <si>
-    <t>33.8%</t>
-  </si>
-  <si>
-    <t>26.4%</t>
-  </si>
-  <si>
-    <t>41.4%</t>
-  </si>
-  <si>
-    <t>51.3%</t>
-  </si>
-  <si>
-    <t>24.7%</t>
-  </si>
-  <si>
-    <t>36.9%</t>
-  </si>
-  <si>
-    <t>63.7%</t>
-  </si>
-  <si>
-    <t>37.1%</t>
-  </si>
-  <si>
-    <t>36.4%</t>
-  </si>
-  <si>
-    <t>49.8%</t>
-  </si>
-  <si>
-    <t>38.8%</t>
-  </si>
-  <si>
-    <t>68.4%</t>
-  </si>
-  <si>
-    <t>46.8%</t>
-  </si>
-  <si>
-    <t>68.9%</t>
-  </si>
-  <si>
-    <t>39.1%</t>
-  </si>
-  <si>
-    <t>46.3%</t>
-  </si>
-  <si>
-    <t>73.3%</t>
-  </si>
-  <si>
-    <t>41.9%</t>
-  </si>
-  <si>
-    <t>46.4%</t>
-  </si>
-  <si>
-    <t>46.5%</t>
-  </si>
-  <si>
-    <t>61.1%</t>
-  </si>
-  <si>
-    <t>69.0%</t>
-  </si>
-  <si>
-    <t>57.2%</t>
-  </si>
-  <si>
-    <t>29.3%</t>
-  </si>
-  <si>
-    <t>28.0%</t>
-  </si>
-  <si>
-    <t>43.4%</t>
-  </si>
-  <si>
-    <t>49.0%</t>
-  </si>
-  <si>
-    <t>39.0%</t>
-  </si>
-  <si>
-    <t>32.3%</t>
-  </si>
-  <si>
-    <t>67.1%</t>
-  </si>
-  <si>
-    <t>53.3%</t>
-  </si>
-  <si>
-    <t>38.2%</t>
-  </si>
-  <si>
-    <t>68.7%</t>
-  </si>
-  <si>
-    <t>56.1%</t>
-  </si>
-  <si>
-    <t>92.7%</t>
-  </si>
-  <si>
-    <t>65.9%</t>
-  </si>
-  <si>
-    <t>86.9%</t>
-  </si>
-  <si>
-    <t>57.3%</t>
-  </si>
-  <si>
-    <t>80.4%</t>
-  </si>
-  <si>
-    <t>74.4%</t>
-  </si>
-  <si>
-    <t>59.1%</t>
-  </si>
-  <si>
-    <t>52.7%</t>
-  </si>
-  <si>
-    <t>61.8%</t>
-  </si>
-  <si>
-    <t>34.4%</t>
-  </si>
-  <si>
-    <t>65.3%</t>
-  </si>
-  <si>
-    <t>69.4%</t>
-  </si>
-  <si>
-    <t>66.1%</t>
-  </si>
-  <si>
-    <t>60.8%</t>
-  </si>
-  <si>
-    <t>75.1%</t>
-  </si>
-  <si>
-    <t>63.0%</t>
-  </si>
-  <si>
-    <t>59.0%</t>
-  </si>
-  <si>
-    <t>64.2%</t>
-  </si>
-  <si>
-    <t>37.7%</t>
-  </si>
-  <si>
-    <t>73.0%</t>
-  </si>
-  <si>
-    <t>71.8%</t>
-  </si>
-  <si>
-    <t>63.6%</t>
-  </si>
-  <si>
-    <t>50.1%</t>
-  </si>
-  <si>
-    <t>53.0%</t>
-  </si>
-  <si>
-    <t>45.5%</t>
-  </si>
-  <si>
-    <t>77.3%</t>
-  </si>
-  <si>
-    <t>60.6%</t>
-  </si>
-  <si>
-    <t>58.1%</t>
-  </si>
-  <si>
-    <t>58.3%</t>
-  </si>
-  <si>
-    <t>76.6%</t>
-  </si>
-  <si>
-    <t>61.6%</t>
-  </si>
-  <si>
     <t>70.7%</t>
-  </si>
-  <si>
-    <t>35.3%</t>
   </si>
   <si>
     <t>83.3%</t>
@@ -3553,7 +3553,7 @@
         <v>622</v>
       </c>
       <c r="M2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="N2" t="n">
         <v>2.194</v>
@@ -3565,25 +3565,25 @@
         <v>4.272</v>
       </c>
       <c r="Q2" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="R2" t="n">
         <v>3.43</v>
       </c>
       <c r="S2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="T2" t="n">
         <v>1.41</v>
       </c>
       <c r="U2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="V2" t="n">
         <v>2.82</v>
       </c>
       <c r="W2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="X2" t="n">
         <v>1.55</v>
@@ -3651,7 +3651,7 @@
         <v>589</v>
       </c>
       <c r="M3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="N3" t="n">
         <v>1.863</v>
@@ -3663,25 +3663,25 @@
         <v>5.999</v>
       </c>
       <c r="Q3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="R3" t="n">
         <v>3.56</v>
       </c>
       <c r="S3" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="T3" t="n">
         <v>1.39</v>
       </c>
       <c r="U3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="V3" t="n">
         <v>3.2</v>
       </c>
       <c r="W3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="X3" t="n">
         <v>1.46</v>
@@ -3749,7 +3749,7 @@
         <v>629</v>
       </c>
       <c r="M4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N4" t="n">
         <v>4.604</v>
@@ -3761,25 +3761,25 @@
         <v>2.074</v>
       </c>
       <c r="Q4" t="s">
-        <v>875</v>
+        <v>642</v>
       </c>
       <c r="R4" t="n">
         <v>3.26</v>
       </c>
       <c r="S4" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="T4" t="n">
         <v>1.44</v>
       </c>
       <c r="U4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="V4" t="n">
         <v>2.77</v>
       </c>
       <c r="W4" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="X4" t="n">
         <v>1.56</v>
@@ -3847,7 +3847,7 @@
         <v>701</v>
       </c>
       <c r="M5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="N5" t="n">
         <v>4.798</v>
@@ -3859,25 +3859,25 @@
         <v>1.892</v>
       </c>
       <c r="Q5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R5" t="n">
         <v>2.44</v>
       </c>
       <c r="S5" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="T5" t="n">
         <v>1.7</v>
       </c>
       <c r="U5" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="V5" t="n">
         <v>2.28</v>
       </c>
       <c r="W5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="X5" t="n">
         <v>1.78</v>
@@ -3945,7 +3945,7 @@
         <v>702</v>
       </c>
       <c r="M6" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="N6" t="n">
         <v>1.992</v>
@@ -3957,25 +3957,25 @@
         <v>3.534</v>
       </c>
       <c r="Q6" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="R6" t="n">
         <v>1.4</v>
       </c>
       <c r="S6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="T6" t="n">
         <v>3.61</v>
       </c>
       <c r="U6" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="V6" t="n">
         <v>1.43</v>
       </c>
       <c r="W6" t="s">
-        <v>744</v>
+        <v>778</v>
       </c>
       <c r="X6" t="n">
         <v>3.4</v>
@@ -4043,7 +4043,7 @@
         <v>703</v>
       </c>
       <c r="M7" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="N7" t="n">
         <v>1.338</v>
@@ -4055,25 +4055,25 @@
         <v>46.296</v>
       </c>
       <c r="Q7" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="R7" t="n">
         <v>4.57</v>
       </c>
       <c r="S7" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="T7" t="n">
         <v>1.28</v>
       </c>
       <c r="U7" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="V7" t="n">
         <v>13.97</v>
       </c>
       <c r="W7" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="X7" t="n">
         <v>1.08</v>
@@ -4138,10 +4138,10 @@
         <v>578</v>
       </c>
       <c r="L8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M8" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="N8" t="n">
         <v>2.449</v>
@@ -4153,7 +4153,7 @@
         <v>3.775</v>
       </c>
       <c r="Q8" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="R8" t="n">
         <v>3.78</v>
@@ -4165,13 +4165,13 @@
         <v>1.36</v>
       </c>
       <c r="U8" t="s">
-        <v>824</v>
+        <v>1016</v>
       </c>
       <c r="V8" t="n">
         <v>2.93</v>
       </c>
       <c r="W8" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="X8" t="n">
         <v>1.52</v>
@@ -4239,7 +4239,7 @@
         <v>704</v>
       </c>
       <c r="M9" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="N9" t="n">
         <v>1.682</v>
@@ -4251,25 +4251,25 @@
         <v>6.15</v>
       </c>
       <c r="Q9" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="R9" t="n">
         <v>2.34</v>
       </c>
       <c r="S9" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="T9" t="n">
         <v>1.75</v>
       </c>
       <c r="U9" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="V9" t="n">
         <v>2.38</v>
       </c>
       <c r="W9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="X9" t="n">
         <v>1.73</v>
@@ -4334,10 +4334,10 @@
         <v>580</v>
       </c>
       <c r="L10" t="s">
-        <v>705</v>
+        <v>647</v>
       </c>
       <c r="M10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="N10" t="n">
         <v>8.15</v>
@@ -4355,19 +4355,19 @@
         <v>1.99</v>
       </c>
       <c r="S10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="T10" t="n">
         <v>2.03</v>
       </c>
       <c r="U10" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="V10" t="n">
         <v>2.3</v>
       </c>
       <c r="W10" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="X10" t="n">
         <v>1.79</v>
@@ -4432,10 +4432,10 @@
         <v>581</v>
       </c>
       <c r="L11" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N11" t="n">
         <v>3.035</v>
@@ -4447,25 +4447,25 @@
         <v>5.269</v>
       </c>
       <c r="Q11" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="R11" t="n">
         <v>14.81</v>
       </c>
       <c r="S11" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="T11" t="n">
         <v>1.07</v>
       </c>
       <c r="U11" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="V11" t="n">
         <v>7.62</v>
       </c>
       <c r="W11" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="X11" t="n">
         <v>1.15</v>
@@ -4530,10 +4530,10 @@
         <v>582</v>
       </c>
       <c r="L12" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M12" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="N12" t="n">
         <v>1.387</v>
@@ -4545,25 +4545,25 @@
         <v>12.18</v>
       </c>
       <c r="Q12" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="R12" t="n">
         <v>1.26</v>
       </c>
       <c r="S12" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="T12" t="n">
         <v>9.05</v>
       </c>
       <c r="U12" t="s">
-        <v>1022</v>
+        <v>988</v>
       </c>
       <c r="V12" t="n">
         <v>1.54</v>
       </c>
       <c r="W12" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X12" t="n">
         <v>3.92</v>
@@ -4628,10 +4628,10 @@
         <v>583</v>
       </c>
       <c r="L13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N13" t="n">
         <v>1.671</v>
@@ -4643,25 +4643,25 @@
         <v>6.18</v>
       </c>
       <c r="Q13" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="R13" t="n">
         <v>2.28</v>
       </c>
       <c r="S13" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="T13" t="n">
         <v>1.79</v>
       </c>
       <c r="U13" t="s">
-        <v>681</v>
+        <v>650</v>
       </c>
       <c r="V13" t="n">
         <v>2.33</v>
       </c>
       <c r="W13" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="X13" t="n">
         <v>1.76</v>
@@ -4726,7 +4726,7 @@
         <v>584</v>
       </c>
       <c r="L14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M14" t="s">
         <v>612</v>
@@ -4741,13 +4741,13 @@
         <v>1.983</v>
       </c>
       <c r="Q14" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="R14" t="n">
         <v>1.51</v>
       </c>
       <c r="S14" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="T14" t="n">
         <v>3.0</v>
@@ -4824,10 +4824,10 @@
         <v>585</v>
       </c>
       <c r="L15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M15" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="N15" t="n">
         <v>3.318</v>
@@ -4839,25 +4839,25 @@
         <v>2.258</v>
       </c>
       <c r="Q15" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="R15" t="n">
         <v>1.98</v>
       </c>
       <c r="S15" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="T15" t="n">
         <v>2.02</v>
       </c>
       <c r="U15" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="V15" t="n">
         <v>1.85</v>
       </c>
       <c r="W15" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="X15" t="n">
         <v>2.19</v>
@@ -4922,7 +4922,7 @@
         <v>586</v>
       </c>
       <c r="L16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M16" t="s">
         <v>695</v>
@@ -4937,13 +4937,13 @@
         <v>1.705</v>
       </c>
       <c r="Q16" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="R16" t="n">
         <v>2.82</v>
       </c>
       <c r="S16" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="T16" t="n">
         <v>1.55</v>
@@ -4955,7 +4955,7 @@
         <v>2.79</v>
       </c>
       <c r="W16" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="X16" t="n">
         <v>1.56</v>
@@ -5020,7 +5020,7 @@
         <v>587</v>
       </c>
       <c r="L17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="M17" t="s">
         <v>594</v>
@@ -5035,25 +5035,25 @@
         <v>10.173</v>
       </c>
       <c r="Q17" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="R17" t="n">
         <v>1.49</v>
       </c>
       <c r="S17" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="T17" t="n">
         <v>3.25</v>
       </c>
       <c r="U17" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="V17" t="n">
         <v>1.87</v>
       </c>
       <c r="W17" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="X17" t="n">
         <v>2.25</v>
@@ -5118,10 +5118,10 @@
         <v>588</v>
       </c>
       <c r="L18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M18" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="N18" t="n">
         <v>2.169</v>
@@ -5133,25 +5133,25 @@
         <v>3.935</v>
       </c>
       <c r="Q18" t="s">
-        <v>885</v>
+        <v>821</v>
       </c>
       <c r="R18" t="n">
         <v>2.69</v>
       </c>
       <c r="S18" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="T18" t="n">
         <v>1.59</v>
       </c>
       <c r="U18" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="V18" t="n">
         <v>2.35</v>
       </c>
       <c r="W18" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="X18" t="n">
         <v>1.74</v>
@@ -5219,7 +5219,7 @@
         <v>639</v>
       </c>
       <c r="M19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="N19" t="n">
         <v>3.378</v>
@@ -5231,25 +5231,25 @@
         <v>2.216</v>
       </c>
       <c r="Q19" t="s">
-        <v>886</v>
+        <v>648</v>
       </c>
       <c r="R19" t="n">
         <v>1.93</v>
       </c>
       <c r="S19" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="T19" t="n">
         <v>2.08</v>
       </c>
       <c r="U19" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="V19" t="n">
         <v>1.82</v>
       </c>
       <c r="W19" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="X19" t="n">
         <v>2.23</v>
@@ -5314,10 +5314,10 @@
         <v>590</v>
       </c>
       <c r="L20" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M20" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="N20" t="n">
         <v>2.504</v>
@@ -5329,7 +5329,7 @@
         <v>3.05</v>
       </c>
       <c r="Q20" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
       <c r="R20" t="n">
         <v>2.26</v>
@@ -5347,7 +5347,7 @@
         <v>2.02</v>
       </c>
       <c r="W20" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="X20" t="n">
         <v>1.99</v>
@@ -5412,10 +5412,10 @@
         <v>591</v>
       </c>
       <c r="L21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M21" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N21" t="n">
         <v>2.501</v>
@@ -5427,25 +5427,25 @@
         <v>2.775</v>
       </c>
       <c r="Q21" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="R21" t="n">
         <v>1.67</v>
       </c>
       <c r="S21" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="T21" t="n">
         <v>2.52</v>
       </c>
       <c r="U21" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="V21" t="n">
         <v>1.61</v>
       </c>
       <c r="W21" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="X21" t="n">
         <v>2.66</v>
@@ -5510,10 +5510,10 @@
         <v>592</v>
       </c>
       <c r="L22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M22" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="N22" t="n">
         <v>5.216</v>
@@ -5525,13 +5525,13 @@
         <v>1.699</v>
       </c>
       <c r="Q22" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="R22" t="n">
         <v>1.76</v>
       </c>
       <c r="S22" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="T22" t="n">
         <v>2.35</v>
@@ -5543,7 +5543,7 @@
         <v>1.83</v>
       </c>
       <c r="W22" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="X22" t="n">
         <v>2.23</v>
@@ -5608,7 +5608,7 @@
         <v>593</v>
       </c>
       <c r="L23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M23" t="s">
         <v>697</v>
@@ -5623,13 +5623,13 @@
         <v>2.443</v>
       </c>
       <c r="Q23" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="R23" t="n">
         <v>2.33</v>
       </c>
       <c r="S23" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="T23" t="n">
         <v>1.75</v>
@@ -5641,7 +5641,7 @@
         <v>2.06</v>
       </c>
       <c r="W23" t="s">
-        <v>648</v>
+        <v>1065</v>
       </c>
       <c r="X23" t="n">
         <v>1.94</v>
@@ -5706,7 +5706,7 @@
         <v>594</v>
       </c>
       <c r="L24" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M24" t="s">
         <v>582</v>
@@ -5721,25 +5721,25 @@
         <v>1.386</v>
       </c>
       <c r="Q24" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="R24" t="n">
         <v>1.27</v>
       </c>
       <c r="S24" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="T24" t="n">
         <v>6.61</v>
       </c>
       <c r="U24" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="V24" t="n">
         <v>1.54</v>
       </c>
       <c r="W24" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="X24" t="n">
         <v>3.48</v>
@@ -5807,7 +5807,7 @@
         <v>621</v>
       </c>
       <c r="M25" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N25" t="n">
         <v>26.316</v>
@@ -5819,25 +5819,25 @@
         <v>1.212</v>
       </c>
       <c r="Q25" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="R25" t="n">
         <v>1.43</v>
       </c>
       <c r="S25" t="s">
-        <v>751</v>
+        <v>959</v>
       </c>
       <c r="T25" t="n">
         <v>3.96</v>
       </c>
       <c r="U25" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="V25" t="n">
         <v>2.4</v>
       </c>
       <c r="W25" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="X25" t="n">
         <v>1.88</v>
@@ -5902,7 +5902,7 @@
         <v>596</v>
       </c>
       <c r="L26" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M26" t="s">
         <v>686</v>
@@ -5929,13 +5929,13 @@
         <v>2.17</v>
       </c>
       <c r="U26" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="V26" t="n">
         <v>1.81</v>
       </c>
       <c r="W26" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="X26" t="n">
         <v>2.24</v>
@@ -6000,10 +6000,10 @@
         <v>597</v>
       </c>
       <c r="L27" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N27" t="n">
         <v>1.314</v>
@@ -6015,13 +6015,13 @@
         <v>21.786</v>
       </c>
       <c r="Q27" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="R27" t="n">
         <v>2.9</v>
       </c>
       <c r="S27" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="T27" t="n">
         <v>1.53</v>
@@ -6033,7 +6033,7 @@
         <v>5.19</v>
       </c>
       <c r="W27" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="X27" t="n">
         <v>1.24</v>
@@ -6098,10 +6098,10 @@
         <v>598</v>
       </c>
       <c r="L28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M28" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="N28" t="n">
         <v>1.459</v>
@@ -6113,25 +6113,25 @@
         <v>12.195</v>
       </c>
       <c r="Q28" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="R28" t="n">
         <v>3.08</v>
       </c>
       <c r="S28" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="T28" t="n">
         <v>1.49</v>
       </c>
       <c r="U28" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V28" t="n">
         <v>3.93</v>
       </c>
       <c r="W28" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="X28" t="n">
         <v>1.34</v>
@@ -6196,10 +6196,10 @@
         <v>599</v>
       </c>
       <c r="L29" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M29" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="N29" t="n">
         <v>1.169</v>
@@ -6211,25 +6211,25 @@
         <v>51.02</v>
       </c>
       <c r="Q29" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="R29" t="n">
         <v>1.47</v>
       </c>
       <c r="S29" t="s">
-        <v>750</v>
+        <v>962</v>
       </c>
       <c r="T29" t="n">
         <v>3.88</v>
       </c>
       <c r="U29" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="V29" t="n">
         <v>3.26</v>
       </c>
       <c r="W29" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="X29" t="n">
         <v>1.59</v>
@@ -6294,7 +6294,7 @@
         <v>600</v>
       </c>
       <c r="L30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M30" t="s">
         <v>703</v>
@@ -6309,13 +6309,13 @@
         <v>4.348</v>
       </c>
       <c r="Q30" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="R30" t="n">
         <v>2.78</v>
       </c>
       <c r="S30" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="T30" t="n">
         <v>1.56</v>
@@ -6327,7 +6327,7 @@
         <v>2.45</v>
       </c>
       <c r="W30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="X30" t="n">
         <v>1.69</v>
@@ -6392,7 +6392,7 @@
         <v>601</v>
       </c>
       <c r="L31" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M31" t="s">
         <v>636</v>
@@ -6407,25 +6407,25 @@
         <v>5.47</v>
       </c>
       <c r="Q31" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="R31" t="n">
         <v>2.11</v>
       </c>
       <c r="S31" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="T31" t="n">
         <v>1.91</v>
       </c>
       <c r="U31" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="V31" t="n">
         <v>2.13</v>
       </c>
       <c r="W31" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="X31" t="n">
         <v>1.9</v>
@@ -6490,10 +6490,10 @@
         <v>602</v>
       </c>
       <c r="L32" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M32" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N32" t="n">
         <v>1.555</v>
@@ -6505,25 +6505,25 @@
         <v>7.831</v>
       </c>
       <c r="Q32" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="R32" t="n">
         <v>2.39</v>
       </c>
       <c r="S32" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="T32" t="n">
         <v>1.72</v>
       </c>
       <c r="U32" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="V32" t="n">
         <v>2.63</v>
       </c>
       <c r="W32" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="X32" t="n">
         <v>1.62</v>
@@ -6588,10 +6588,10 @@
         <v>603</v>
       </c>
       <c r="L33" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M33" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="N33" t="n">
         <v>2.164</v>
@@ -6603,25 +6603,25 @@
         <v>3.232</v>
       </c>
       <c r="Q33" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="R33" t="n">
         <v>1.54</v>
       </c>
       <c r="S33" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="T33" t="n">
         <v>2.87</v>
       </c>
       <c r="U33" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="V33" t="n">
         <v>1.53</v>
       </c>
       <c r="W33" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="X33" t="n">
         <v>2.91</v>
@@ -6686,10 +6686,10 @@
         <v>604</v>
       </c>
       <c r="L34" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M34" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="N34" t="n">
         <v>2.018</v>
@@ -6701,13 +6701,13 @@
         <v>3.475</v>
       </c>
       <c r="Q34" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="R34" t="n">
         <v>1.42</v>
       </c>
       <c r="S34" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="T34" t="n">
         <v>3.47</v>
@@ -6719,7 +6719,7 @@
         <v>1.45</v>
       </c>
       <c r="W34" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="X34" t="n">
         <v>3.31</v>
@@ -6784,10 +6784,10 @@
         <v>605</v>
       </c>
       <c r="L35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M35" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="N35" t="n">
         <v>8.688</v>
@@ -6799,19 +6799,19 @@
         <v>1.445</v>
       </c>
       <c r="Q35" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="R35" t="n">
         <v>1.84</v>
       </c>
       <c r="S35" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="T35" t="n">
         <v>2.22</v>
       </c>
       <c r="U35" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="V35" t="n">
         <v>2.19</v>
@@ -6882,10 +6882,10 @@
         <v>606</v>
       </c>
       <c r="L36" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M36" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="N36" t="n">
         <v>5.924</v>
@@ -6903,13 +6903,13 @@
         <v>1.79</v>
       </c>
       <c r="S36" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="T36" t="n">
         <v>2.29</v>
       </c>
       <c r="U36" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="V36" t="n">
         <v>1.91</v>
@@ -6980,10 +6980,10 @@
         <v>607</v>
       </c>
       <c r="L37" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M37" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="N37" t="n">
         <v>4.08</v>
@@ -6995,25 +6995,25 @@
         <v>2.116</v>
       </c>
       <c r="Q37" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="R37" t="n">
         <v>2.66</v>
       </c>
       <c r="S37" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="T37" t="n">
         <v>1.6</v>
       </c>
       <c r="U37" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="V37" t="n">
         <v>2.34</v>
       </c>
       <c r="W37" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="X37" t="n">
         <v>1.75</v>
@@ -7078,10 +7078,10 @@
         <v>608</v>
       </c>
       <c r="L38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M38" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="N38" t="n">
         <v>1.408</v>
@@ -7093,25 +7093,25 @@
         <v>8.598</v>
       </c>
       <c r="Q38" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="R38" t="n">
         <v>1.41</v>
       </c>
       <c r="S38" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="T38" t="n">
         <v>3.73</v>
       </c>
       <c r="U38" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="V38" t="n">
         <v>1.69</v>
       </c>
       <c r="W38" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="X38" t="n">
         <v>2.59</v>
@@ -7176,10 +7176,10 @@
         <v>609</v>
       </c>
       <c r="L39" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M39" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="N39" t="n">
         <v>3.289</v>
@@ -7191,19 +7191,19 @@
         <v>2.27</v>
       </c>
       <c r="Q39" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="R39" t="n">
         <v>1.97</v>
       </c>
       <c r="S39" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="T39" t="n">
         <v>2.03</v>
       </c>
       <c r="U39" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="V39" t="n">
         <v>1.84</v>
@@ -7274,10 +7274,10 @@
         <v>610</v>
       </c>
       <c r="L40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M40" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="N40" t="n">
         <v>1.53</v>
@@ -7289,25 +7289,25 @@
         <v>6.882</v>
       </c>
       <c r="Q40" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="R40" t="n">
         <v>1.73</v>
       </c>
       <c r="S40" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="T40" t="n">
         <v>2.4</v>
       </c>
       <c r="U40" t="s">
-        <v>995</v>
+        <v>649</v>
       </c>
       <c r="V40" t="n">
         <v>1.94</v>
       </c>
       <c r="W40" t="s">
-        <v>990</v>
+        <v>921</v>
       </c>
       <c r="X40" t="n">
         <v>2.09</v>
@@ -7372,10 +7372,10 @@
         <v>611</v>
       </c>
       <c r="L41" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M41" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="N41" t="n">
         <v>2.827</v>
@@ -7387,25 +7387,25 @@
         <v>2.455</v>
       </c>
       <c r="Q41" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="R41" t="n">
         <v>1.65</v>
       </c>
       <c r="S41" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="T41" t="n">
         <v>2.54</v>
       </c>
       <c r="U41" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="V41" t="n">
         <v>1.6</v>
       </c>
       <c r="W41" t="s">
-        <v>822</v>
+        <v>1072</v>
       </c>
       <c r="X41" t="n">
         <v>2.68</v>
@@ -7470,10 +7470,10 @@
         <v>612</v>
       </c>
       <c r="L42" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M42" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="N42" t="n">
         <v>1.983</v>
@@ -7485,25 +7485,25 @@
         <v>3.488</v>
       </c>
       <c r="Q42" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="R42" t="n">
         <v>1.3</v>
       </c>
       <c r="S42" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="T42" t="n">
         <v>4.57</v>
       </c>
       <c r="U42" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="V42" t="n">
         <v>1.35</v>
       </c>
       <c r="W42" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="X42" t="n">
         <v>4.06</v>
@@ -7568,10 +7568,10 @@
         <v>613</v>
       </c>
       <c r="L43" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M43" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="N43" t="n">
         <v>3.432</v>
@@ -7583,25 +7583,25 @@
         <v>1.998</v>
       </c>
       <c r="Q43" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="R43" t="n">
         <v>1.28</v>
       </c>
       <c r="S43" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="T43" t="n">
         <v>4.9</v>
       </c>
       <c r="U43" t="s">
-        <v>643</v>
+        <v>1026</v>
       </c>
       <c r="V43" t="n">
         <v>1.33</v>
       </c>
       <c r="W43" t="s">
-        <v>869</v>
+        <v>825</v>
       </c>
       <c r="X43" t="n">
         <v>4.29</v>
@@ -7666,10 +7666,10 @@
         <v>614</v>
       </c>
       <c r="L44" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M44" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="N44" t="n">
         <v>1.508</v>
@@ -7681,19 +7681,19 @@
         <v>9.033</v>
       </c>
       <c r="Q44" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="R44" t="n">
         <v>2.52</v>
       </c>
       <c r="S44" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="T44" t="n">
         <v>1.66</v>
       </c>
       <c r="U44" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="V44" t="n">
         <v>2.9</v>
@@ -7764,10 +7764,10 @@
         <v>615</v>
       </c>
       <c r="L45" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M45" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="N45" t="n">
         <v>1.159</v>
@@ -7779,19 +7779,19 @@
         <v>46.296</v>
       </c>
       <c r="Q45" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="R45" t="n">
         <v>1.6</v>
       </c>
       <c r="S45" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="T45" t="n">
         <v>2.98</v>
       </c>
       <c r="U45" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="V45" t="n">
         <v>3.73</v>
@@ -7862,10 +7862,10 @@
         <v>616</v>
       </c>
       <c r="L46" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M46" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N46" t="n">
         <v>2.118</v>
@@ -7877,19 +7877,19 @@
         <v>4.627</v>
       </c>
       <c r="Q46" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="R46" t="n">
         <v>3.58</v>
       </c>
       <c r="S46" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="T46" t="n">
         <v>1.39</v>
       </c>
       <c r="U46" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="V46" t="n">
         <v>2.96</v>
@@ -7960,10 +7960,10 @@
         <v>617</v>
       </c>
       <c r="L47" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M47" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N47" t="n">
         <v>2.527</v>
@@ -7975,19 +7975,19 @@
         <v>4.189</v>
       </c>
       <c r="Q47" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="R47" t="n">
         <v>5.39</v>
       </c>
       <c r="S47" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="T47" t="n">
         <v>1.23</v>
       </c>
       <c r="U47" t="s">
-        <v>1030</v>
+        <v>641</v>
       </c>
       <c r="V47" t="n">
         <v>3.79</v>
@@ -8058,10 +8058,10 @@
         <v>618</v>
       </c>
       <c r="L48" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="M48" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N48" t="n">
         <v>12.034</v>
@@ -8073,25 +8073,25 @@
         <v>1.342</v>
       </c>
       <c r="Q48" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="R48" t="n">
         <v>1.81</v>
       </c>
       <c r="S48" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="T48" t="n">
         <v>2.28</v>
       </c>
       <c r="U48" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="V48" t="n">
         <v>2.42</v>
       </c>
       <c r="W48" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="X48" t="n">
         <v>1.73</v>
@@ -8156,10 +8156,10 @@
         <v>619</v>
       </c>
       <c r="L49" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M49" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="N49" t="n">
         <v>1.32</v>
@@ -8177,13 +8177,13 @@
         <v>1.51</v>
       </c>
       <c r="S49" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="T49" t="n">
         <v>8.9</v>
       </c>
       <c r="U49" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="V49" t="n">
         <v>5.99</v>
@@ -8254,10 +8254,10 @@
         <v>620</v>
       </c>
       <c r="L50" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M50" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N50" t="n">
         <v>1.266</v>
@@ -8269,25 +8269,25 @@
         <v>17.182</v>
       </c>
       <c r="Q50" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="R50" t="n">
         <v>1.37</v>
       </c>
       <c r="S50" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="T50" t="n">
         <v>4.53</v>
       </c>
       <c r="U50" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="V50" t="n">
         <v>1.95</v>
       </c>
       <c r="W50" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="X50" t="n">
         <v>2.29</v>
@@ -8352,10 +8352,10 @@
         <v>621</v>
       </c>
       <c r="L51" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M51" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="N51" t="n">
         <v>11.601</v>
@@ -8373,13 +8373,13 @@
         <v>3.29</v>
       </c>
       <c r="S51" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="T51" t="n">
         <v>1.44</v>
       </c>
       <c r="U51" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="V51" t="n">
         <v>4.04</v>
@@ -8465,25 +8465,25 @@
         <v>2.504</v>
       </c>
       <c r="Q52" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="R52" t="n">
         <v>2.68</v>
       </c>
       <c r="S52" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="T52" t="n">
         <v>1.6</v>
       </c>
       <c r="U52" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="V52" t="n">
         <v>2.28</v>
       </c>
       <c r="W52" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="X52" t="n">
         <v>1.78</v>
@@ -8548,10 +8548,10 @@
         <v>623</v>
       </c>
       <c r="L53" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M53" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="N53" t="n">
         <v>5.438</v>
@@ -8563,13 +8563,13 @@
         <v>1.718</v>
       </c>
       <c r="Q53" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="R53" t="n">
         <v>2.03</v>
       </c>
       <c r="S53" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="T53" t="n">
         <v>1.98</v>
@@ -8581,7 +8581,7 @@
         <v>2.07</v>
       </c>
       <c r="W53" t="s">
-        <v>649</v>
+        <v>923</v>
       </c>
       <c r="X53" t="n">
         <v>1.95</v>
@@ -8646,10 +8646,10 @@
         <v>624</v>
       </c>
       <c r="L54" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M54" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="N54" t="n">
         <v>4.212</v>
@@ -8661,25 +8661,25 @@
         <v>1.839</v>
       </c>
       <c r="Q54" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="R54" t="n">
         <v>1.57</v>
       </c>
       <c r="S54" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="T54" t="n">
         <v>2.81</v>
       </c>
       <c r="U54" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="V54" t="n">
         <v>1.6</v>
       </c>
       <c r="W54" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="X54" t="n">
         <v>2.7</v>
@@ -8744,10 +8744,10 @@
         <v>625</v>
       </c>
       <c r="L55" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M55" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="N55" t="n">
         <v>4.537</v>
@@ -8759,25 +8759,25 @@
         <v>1.73</v>
       </c>
       <c r="Q55" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="R55" t="n">
         <v>1.36</v>
       </c>
       <c r="S55" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="T55" t="n">
         <v>3.99</v>
       </c>
       <c r="U55" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="V55" t="n">
         <v>1.44</v>
       </c>
       <c r="W55" t="s">
-        <v>744</v>
+        <v>778</v>
       </c>
       <c r="X55" t="n">
         <v>3.4</v>
@@ -8845,7 +8845,7 @@
         <v>639</v>
       </c>
       <c r="M56" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="N56" t="n">
         <v>1.791</v>
@@ -8857,25 +8857,25 @@
         <v>5.285</v>
       </c>
       <c r="Q56" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="R56" t="n">
         <v>2.34</v>
       </c>
       <c r="S56" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="T56" t="n">
         <v>1.75</v>
       </c>
       <c r="U56" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="V56" t="n">
         <v>2.28</v>
       </c>
       <c r="W56" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="X56" t="n">
         <v>1.79</v>
@@ -8940,10 +8940,10 @@
         <v>627</v>
       </c>
       <c r="L57" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M57" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="N57" t="n">
         <v>1.763</v>
@@ -8955,25 +8955,25 @@
         <v>5.187</v>
       </c>
       <c r="Q57" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="R57" t="n">
         <v>2.09</v>
       </c>
       <c r="S57" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="T57" t="n">
         <v>1.93</v>
       </c>
       <c r="U57" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="V57" t="n">
         <v>2.08</v>
       </c>
       <c r="W57" t="s">
-        <v>886</v>
+        <v>648</v>
       </c>
       <c r="X57" t="n">
         <v>1.93</v>
@@ -9038,7 +9038,7 @@
         <v>628</v>
       </c>
       <c r="L58" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="M58" t="s">
         <v>618</v>
@@ -9053,25 +9053,25 @@
         <v>11.99</v>
       </c>
       <c r="Q58" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="R58" t="n">
         <v>1.35</v>
       </c>
       <c r="S58" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="T58" t="n">
         <v>4.65</v>
       </c>
       <c r="U58" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="V58" t="n">
         <v>1.73</v>
       </c>
       <c r="W58" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="X58" t="n">
         <v>2.64</v>
@@ -9136,10 +9136,10 @@
         <v>629</v>
       </c>
       <c r="L59" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M59" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="N59" t="n">
         <v>3.339</v>
@@ -9151,7 +9151,7 @@
         <v>2.208</v>
       </c>
       <c r="Q59" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="R59" t="n">
         <v>1.84</v>
@@ -9163,13 +9163,13 @@
         <v>2.19</v>
       </c>
       <c r="U59" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="V59" t="n">
         <v>1.76</v>
       </c>
       <c r="W59" t="s">
-        <v>681</v>
+        <v>650</v>
       </c>
       <c r="X59" t="n">
         <v>2.33</v>
@@ -9234,10 +9234,10 @@
         <v>630</v>
       </c>
       <c r="L60" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M60" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="N60" t="n">
         <v>10.0</v>
@@ -9249,13 +9249,13 @@
         <v>1.412</v>
       </c>
       <c r="Q60" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="R60" t="n">
         <v>1.98</v>
       </c>
       <c r="S60" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="T60" t="n">
         <v>2.05</v>
@@ -9332,10 +9332,10 @@
         <v>631</v>
       </c>
       <c r="L61" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M61" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="N61" t="n">
         <v>4.585</v>
@@ -9353,13 +9353,13 @@
         <v>3.16</v>
       </c>
       <c r="S61" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="T61" t="n">
         <v>1.46</v>
       </c>
       <c r="U61" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="V61" t="n">
         <v>2.71</v>
@@ -9430,10 +9430,10 @@
         <v>632</v>
       </c>
       <c r="L62" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M62" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N62" t="n">
         <v>2.065</v>
@@ -9445,13 +9445,13 @@
         <v>4.323</v>
       </c>
       <c r="Q62" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="R62" t="n">
         <v>2.78</v>
       </c>
       <c r="S62" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="T62" t="n">
         <v>1.56</v>
@@ -9528,10 +9528,10 @@
         <v>633</v>
       </c>
       <c r="L63" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="M63" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="N63" t="n">
         <v>1.188</v>
@@ -9543,19 +9543,19 @@
         <v>52.083</v>
       </c>
       <c r="Q63" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="R63" t="n">
         <v>1.42</v>
       </c>
       <c r="S63" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="T63" t="n">
         <v>4.71</v>
       </c>
       <c r="U63" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="V63" t="n">
         <v>2.96</v>
@@ -9626,10 +9626,10 @@
         <v>634</v>
       </c>
       <c r="L64" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="M64" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="N64" t="n">
         <v>1.166</v>
@@ -9641,13 +9641,13 @@
         <v>50.251</v>
       </c>
       <c r="Q64" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="R64" t="n">
         <v>1.49</v>
       </c>
       <c r="S64" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="T64" t="n">
         <v>3.69</v>
@@ -9724,7 +9724,7 @@
         <v>635</v>
       </c>
       <c r="L65" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="M65" t="s">
         <v>598</v>
@@ -9739,7 +9739,7 @@
         <v>1.457</v>
       </c>
       <c r="Q65" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="R65" t="n">
         <v>1.35</v>
@@ -9751,13 +9751,13 @@
         <v>4.22</v>
       </c>
       <c r="U65" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="V65" t="n">
         <v>1.57</v>
       </c>
       <c r="W65" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="X65" t="n">
         <v>2.96</v>
@@ -9822,10 +9822,10 @@
         <v>636</v>
       </c>
       <c r="L66" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M66" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="N66" t="n">
         <v>5.461</v>
@@ -9837,25 +9837,25 @@
         <v>1.853</v>
       </c>
       <c r="Q66" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="R66" t="n">
         <v>2.92</v>
       </c>
       <c r="S66" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="T66" t="n">
         <v>1.52</v>
       </c>
       <c r="U66" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="V66" t="n">
         <v>2.69</v>
       </c>
       <c r="W66" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="X66" t="n">
         <v>1.59</v>
@@ -9920,10 +9920,10 @@
         <v>637</v>
       </c>
       <c r="L67" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M67" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="N67" t="n">
         <v>1.823</v>
@@ -9935,25 +9935,25 @@
         <v>4.66</v>
       </c>
       <c r="Q67" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="R67" t="n">
         <v>1.92</v>
       </c>
       <c r="S67" t="s">
-        <v>990</v>
+        <v>921</v>
       </c>
       <c r="T67" t="n">
         <v>2.09</v>
       </c>
       <c r="U67" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="V67" t="n">
         <v>1.91</v>
       </c>
       <c r="W67" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="X67" t="n">
         <v>2.11</v>
@@ -10018,7 +10018,7 @@
         <v>638</v>
       </c>
       <c r="L68" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="M68" t="s">
         <v>692</v>
@@ -10033,19 +10033,19 @@
         <v>8.17</v>
       </c>
       <c r="Q68" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="R68" t="n">
         <v>1.41</v>
       </c>
       <c r="S68" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="T68" t="n">
         <v>3.76</v>
       </c>
       <c r="U68" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="V68" t="n">
         <v>1.66</v>
@@ -10116,10 +10116,10 @@
         <v>639</v>
       </c>
       <c r="L69" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M69" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="N69" t="n">
         <v>3.987</v>
@@ -10131,19 +10131,19 @@
         <v>2.6</v>
       </c>
       <c r="Q69" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="R69" t="n">
         <v>5.29</v>
       </c>
       <c r="S69" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="T69" t="n">
         <v>1.23</v>
       </c>
       <c r="U69" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="V69" t="n">
         <v>3.7</v>
@@ -10214,34 +10214,34 @@
         <v>640</v>
       </c>
       <c r="L70" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="M70" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N70" t="n">
-        <v>5.814</v>
+        <v>5.8</v>
       </c>
       <c r="O70" t="n">
-        <v>3.129</v>
+        <v>3.13</v>
       </c>
       <c r="P70" t="n">
-        <v>1.968</v>
+        <v>1.97</v>
       </c>
       <c r="Q70" t="s">
-        <v>717</v>
+        <v>624</v>
       </c>
       <c r="R70" t="n">
-        <v>4.23</v>
+        <v>4.22</v>
       </c>
       <c r="S70" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="T70" t="n">
         <v>1.31</v>
       </c>
       <c r="U70" t="s">
-        <v>874</v>
+        <v>720</v>
       </c>
       <c r="V70" t="n">
         <v>3.55</v>
@@ -10253,25 +10253,25 @@
         <v>1.39</v>
       </c>
       <c r="Y70" t="n">
-        <v>10.03</v>
+        <v>10.02</v>
       </c>
       <c r="Z70" t="n">
-        <v>4.677</v>
+        <v>4.686</v>
       </c>
       <c r="AA70" t="n">
-        <v>8.772</v>
+        <v>8.757</v>
       </c>
       <c r="AB70" t="n">
-        <v>37.594</v>
+        <v>37.453</v>
       </c>
       <c r="AC70" t="n">
-        <v>8.177</v>
+        <v>8.19</v>
       </c>
       <c r="AD70" t="n">
-        <v>32.895</v>
+        <v>32.787</v>
       </c>
       <c r="AE70" t="n">
-        <v>15.337</v>
+        <v>15.314</v>
       </c>
       <c r="AF70" t="s">
         <v>1105</v>
@@ -10312,40 +10312,40 @@
         <v>641</v>
       </c>
       <c r="L71" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="M71" t="s">
-        <v>789</v>
+        <v>820</v>
       </c>
       <c r="N71" t="n">
-        <v>3.801</v>
+        <v>3.786</v>
       </c>
       <c r="O71" t="n">
-        <v>3.407</v>
+        <v>3.408</v>
       </c>
       <c r="P71" t="n">
-        <v>2.257</v>
+        <v>2.26</v>
       </c>
       <c r="Q71" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="R71" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="S71" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="T71" t="n">
         <v>1.54</v>
       </c>
       <c r="U71" t="s">
-        <v>840</v>
+        <v>1034</v>
       </c>
       <c r="V71" t="n">
         <v>2.43</v>
       </c>
       <c r="W71" t="s">
-        <v>792</v>
+        <v>949</v>
       </c>
       <c r="X71" t="n">
         <v>1.7</v>
@@ -10354,19 +10354,19 @@
         <v>9.337</v>
       </c>
       <c r="Z71" t="n">
-        <v>6.649</v>
+        <v>6.671</v>
       </c>
       <c r="AA71" t="n">
-        <v>7.622</v>
+        <v>7.616</v>
       </c>
       <c r="AB71" t="n">
-        <v>21.413</v>
+        <v>21.322</v>
       </c>
       <c r="AC71" t="n">
-        <v>10.858</v>
+        <v>10.881</v>
       </c>
       <c r="AD71" t="n">
-        <v>17.483</v>
+        <v>17.391</v>
       </c>
       <c r="AE71" t="n">
         <v>12.438</v>
@@ -10410,64 +10410,64 @@
         <v>642</v>
       </c>
       <c r="L72" t="s">
-        <v>745</v>
+        <v>682</v>
       </c>
       <c r="M72" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="N72" t="n">
-        <v>3.275</v>
+        <v>3.266</v>
       </c>
       <c r="O72" t="n">
-        <v>3.108</v>
+        <v>3.111</v>
       </c>
       <c r="P72" t="n">
-        <v>2.683</v>
+        <v>2.687</v>
       </c>
       <c r="Q72" t="s">
-        <v>711</v>
+        <v>917</v>
       </c>
       <c r="R72" t="n">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="S72" t="s">
-        <v>876</v>
+        <v>666</v>
       </c>
       <c r="T72" t="n">
         <v>1.4</v>
       </c>
       <c r="U72" t="s">
-        <v>1037</v>
+        <v>726</v>
       </c>
       <c r="V72" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="W72" t="s">
-        <v>1084</v>
+        <v>925</v>
       </c>
       <c r="X72" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Y72" t="n">
         <v>7.396</v>
       </c>
       <c r="Z72" t="n">
-        <v>6.464</v>
+        <v>6.485</v>
       </c>
       <c r="AA72" t="n">
-        <v>7.463</v>
+        <v>7.457</v>
       </c>
       <c r="AB72" t="n">
-        <v>17.065</v>
+        <v>17.007</v>
       </c>
       <c r="AC72" t="n">
-        <v>13.038</v>
+        <v>13.089</v>
       </c>
       <c r="AD72" t="n">
-        <v>17.241</v>
+        <v>17.153</v>
       </c>
       <c r="AE72" t="n">
-        <v>15.06</v>
+        <v>15.038</v>
       </c>
       <c r="AF72" t="s">
         <v>1105</v>
@@ -10508,67 +10508,67 @@
         <v>643</v>
       </c>
       <c r="L73" t="s">
-        <v>746</v>
+        <v>592</v>
       </c>
       <c r="M73" t="s">
-        <v>823</v>
+        <v>621</v>
       </c>
       <c r="N73" t="n">
-        <v>1.33</v>
+        <v>1.394</v>
       </c>
       <c r="O73" t="n">
-        <v>5.872</v>
+        <v>5.198</v>
       </c>
       <c r="P73" t="n">
-        <v>14.045</v>
+        <v>11.641</v>
       </c>
       <c r="Q73" t="s">
-        <v>923</v>
+        <v>698</v>
       </c>
       <c r="R73" t="n">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="S73" t="s">
-        <v>649</v>
+        <v>901</v>
       </c>
       <c r="T73" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="U73" t="s">
-        <v>670</v>
+        <v>1016</v>
       </c>
       <c r="V73" t="n">
-        <v>2.97</v>
+        <v>2.94</v>
       </c>
       <c r="W73" t="s">
-        <v>989</v>
+        <v>1084</v>
       </c>
       <c r="X73" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Y73" t="n">
-        <v>6.427</v>
+        <v>6.028</v>
       </c>
       <c r="Z73" t="n">
-        <v>28.249</v>
+        <v>23.256</v>
       </c>
       <c r="AA73" t="n">
-        <v>13.245</v>
+        <v>11.848</v>
       </c>
       <c r="AB73" t="n">
-        <v>6.028</v>
+        <v>6.146</v>
       </c>
       <c r="AC73" t="n">
-        <v>116.279</v>
+        <v>91.743</v>
       </c>
       <c r="AD73" t="n">
-        <v>12.422</v>
+        <v>12.092</v>
       </c>
       <c r="AE73" t="n">
-        <v>54.645</v>
+        <v>46.729</v>
       </c>
       <c r="AF73" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="74">
@@ -10606,64 +10606,64 @@
         <v>644</v>
       </c>
       <c r="L74" t="s">
-        <v>747</v>
+        <v>711</v>
       </c>
       <c r="M74" t="s">
-        <v>824</v>
+        <v>694</v>
       </c>
       <c r="N74" t="n">
-        <v>2.593</v>
+        <v>2.587</v>
       </c>
       <c r="O74" t="n">
-        <v>3.666</v>
+        <v>3.672</v>
       </c>
       <c r="P74" t="n">
-        <v>2.931</v>
+        <v>2.939</v>
       </c>
       <c r="Q74" t="s">
-        <v>789</v>
+        <v>698</v>
       </c>
       <c r="R74" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="S74" t="s">
-        <v>993</v>
+        <v>940</v>
       </c>
       <c r="T74" t="n">
         <v>1.8</v>
       </c>
       <c r="U74" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="V74" t="n">
-        <v>2.01</v>
+        <v>2.0</v>
       </c>
       <c r="W74" t="s">
-        <v>1085</v>
+        <v>804</v>
       </c>
       <c r="X74" t="n">
-        <v>1.99</v>
+        <v>2.0</v>
       </c>
       <c r="Y74" t="n">
-        <v>9.124</v>
+        <v>9.141</v>
       </c>
       <c r="Z74" t="n">
-        <v>9.843</v>
+        <v>9.891</v>
       </c>
       <c r="AA74" t="n">
-        <v>7.734</v>
+        <v>7.746</v>
       </c>
       <c r="AB74" t="n">
-        <v>14.347</v>
+        <v>14.306</v>
       </c>
       <c r="AC74" t="n">
-        <v>16.694</v>
+        <v>16.75</v>
       </c>
       <c r="AD74" t="n">
-        <v>12.165</v>
+        <v>12.136</v>
       </c>
       <c r="AE74" t="n">
-        <v>13.106</v>
+        <v>13.123</v>
       </c>
       <c r="AF74" t="s">
         <v>1105</v>
@@ -10704,64 +10704,64 @@
         <v>645</v>
       </c>
       <c r="L75" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="M75" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="N75" t="n">
-        <v>5.02</v>
+        <v>5.005</v>
       </c>
       <c r="O75" t="n">
-        <v>3.593</v>
+        <v>3.596</v>
       </c>
       <c r="P75" t="n">
-        <v>1.916</v>
+        <v>1.919</v>
       </c>
       <c r="Q75" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="R75" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="S75" t="s">
-        <v>659</v>
+        <v>989</v>
       </c>
       <c r="T75" t="n">
         <v>1.55</v>
       </c>
       <c r="U75" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="V75" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="W75" t="s">
-        <v>1049</v>
+        <v>669</v>
       </c>
       <c r="X75" t="n">
         <v>1.64</v>
       </c>
       <c r="Y75" t="n">
-        <v>11.249</v>
+        <v>11.236</v>
       </c>
       <c r="Z75" t="n">
-        <v>5.988</v>
+        <v>6.006</v>
       </c>
       <c r="AA75" t="n">
-        <v>8.17</v>
+        <v>8.163</v>
       </c>
       <c r="AB75" t="n">
-        <v>30.675</v>
+        <v>30.581</v>
       </c>
       <c r="AC75" t="n">
-        <v>8.703</v>
+        <v>8.726</v>
       </c>
       <c r="AD75" t="n">
-        <v>22.272</v>
+        <v>22.173</v>
       </c>
       <c r="AE75" t="n">
-        <v>11.876</v>
+        <v>11.862</v>
       </c>
       <c r="AF75" t="s">
         <v>1105</v>
@@ -10802,64 +10802,64 @@
         <v>646</v>
       </c>
       <c r="L76" t="s">
-        <v>647</v>
+        <v>745</v>
       </c>
       <c r="M76" t="s">
-        <v>607</v>
+        <v>823</v>
       </c>
       <c r="N76" t="n">
-        <v>1.833</v>
+        <v>1.828</v>
       </c>
       <c r="O76" t="n">
-        <v>5.005</v>
+        <v>5.015</v>
       </c>
       <c r="P76" t="n">
-        <v>4.077</v>
+        <v>4.097</v>
       </c>
       <c r="Q76" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="R76" t="n">
         <v>1.4</v>
       </c>
       <c r="S76" t="s">
-        <v>906</v>
+        <v>739</v>
       </c>
       <c r="T76" t="n">
-        <v>3.59</v>
+        <v>3.61</v>
       </c>
       <c r="U76" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="V76" t="n">
         <v>1.46</v>
       </c>
       <c r="W76" t="s">
-        <v>1026</v>
+        <v>642</v>
       </c>
       <c r="X76" t="n">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="Y76" t="n">
-        <v>18.587</v>
+        <v>18.692</v>
       </c>
       <c r="Z76" t="n">
-        <v>28.571</v>
+        <v>28.818</v>
       </c>
       <c r="AA76" t="n">
-        <v>12.61</v>
+        <v>12.658</v>
       </c>
       <c r="AB76" t="n">
-        <v>16.393</v>
+        <v>16.42</v>
       </c>
       <c r="AC76" t="n">
-        <v>38.76</v>
+        <v>39.062</v>
       </c>
       <c r="AD76" t="n">
-        <v>11.123</v>
+        <v>11.136</v>
       </c>
       <c r="AE76" t="n">
-        <v>17.094</v>
+        <v>17.182</v>
       </c>
       <c r="AF76" t="s">
         <v>1108</v>
@@ -10903,37 +10903,37 @@
         <v>701</v>
       </c>
       <c r="M77" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="N77" t="n">
-        <v>4.993</v>
+        <v>4.98</v>
       </c>
       <c r="O77" t="n">
-        <v>3.814</v>
+        <v>3.815</v>
       </c>
       <c r="P77" t="n">
-        <v>1.864</v>
+        <v>1.866</v>
       </c>
       <c r="Q77" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="R77" t="n">
-        <v>2.49</v>
+        <v>2.48</v>
       </c>
       <c r="S77" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="T77" t="n">
         <v>1.68</v>
       </c>
       <c r="U77" t="s">
-        <v>878</v>
+        <v>650</v>
       </c>
       <c r="V77" t="n">
         <v>2.34</v>
       </c>
       <c r="W77" t="s">
-        <v>1051</v>
+        <v>951</v>
       </c>
       <c r="X77" t="n">
         <v>1.75</v>
@@ -10942,22 +10942,22 @@
         <v>12.438</v>
       </c>
       <c r="Z77" t="n">
-        <v>6.64</v>
+        <v>6.662</v>
       </c>
       <c r="AA77" t="n">
-        <v>8.306</v>
+        <v>8.299</v>
       </c>
       <c r="AB77" t="n">
-        <v>31.056</v>
+        <v>30.96</v>
       </c>
       <c r="AC77" t="n">
-        <v>8.873</v>
+        <v>8.897</v>
       </c>
       <c r="AD77" t="n">
-        <v>20.79</v>
+        <v>20.704</v>
       </c>
       <c r="AE77" t="n">
-        <v>11.099</v>
+        <v>11.086</v>
       </c>
       <c r="AF77" t="s">
         <v>1105</v>
@@ -10998,64 +10998,64 @@
         <v>648</v>
       </c>
       <c r="L78" t="s">
-        <v>749</v>
+        <v>686</v>
       </c>
       <c r="M78" t="s">
-        <v>741</v>
+        <v>825</v>
       </c>
       <c r="N78" t="n">
-        <v>1.941</v>
+        <v>1.936</v>
       </c>
       <c r="O78" t="n">
-        <v>4.016</v>
+        <v>4.024</v>
       </c>
       <c r="P78" t="n">
-        <v>4.268</v>
+        <v>4.284</v>
       </c>
       <c r="Q78" t="s">
-        <v>926</v>
+        <v>632</v>
       </c>
       <c r="R78" t="n">
         <v>2.07</v>
       </c>
       <c r="S78" t="s">
-        <v>995</v>
+        <v>923</v>
       </c>
       <c r="T78" t="n">
         <v>1.94</v>
       </c>
       <c r="U78" t="s">
-        <v>883</v>
+        <v>910</v>
       </c>
       <c r="V78" t="n">
         <v>1.98</v>
       </c>
       <c r="W78" t="s">
-        <v>680</v>
+        <v>971</v>
       </c>
       <c r="X78" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="Y78" t="n">
-        <v>8.439</v>
+        <v>8.46</v>
       </c>
       <c r="Z78" t="n">
-        <v>13.624</v>
+        <v>13.699</v>
       </c>
       <c r="AA78" t="n">
-        <v>8.453</v>
+        <v>8.467</v>
       </c>
       <c r="AB78" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>27.473</v>
+      </c>
+      <c r="AD78" t="n">
         <v>10.471</v>
       </c>
-      <c r="AC78" t="n">
-        <v>27.322</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>10.493</v>
-      </c>
       <c r="AE78" t="n">
-        <v>16.92</v>
+        <v>16.978</v>
       </c>
       <c r="AF78" t="s">
         <v>1108</v>
@@ -11096,64 +11096,64 @@
         <v>649</v>
       </c>
       <c r="L79" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="M79" t="s">
-        <v>827</v>
+        <v>757</v>
       </c>
       <c r="N79" t="n">
-        <v>1.944</v>
+        <v>1.937</v>
       </c>
       <c r="O79" t="n">
-        <v>3.873</v>
+        <v>3.883</v>
       </c>
       <c r="P79" t="n">
-        <v>4.427</v>
+        <v>4.44</v>
       </c>
       <c r="Q79" t="s">
-        <v>802</v>
+        <v>843</v>
       </c>
       <c r="R79" t="n">
         <v>2.27</v>
       </c>
       <c r="S79" t="s">
-        <v>656</v>
+        <v>991</v>
       </c>
       <c r="T79" t="n">
         <v>1.79</v>
       </c>
       <c r="U79" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="V79" t="n">
         <v>2.13</v>
       </c>
       <c r="W79" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="X79" t="n">
         <v>1.89</v>
       </c>
       <c r="Y79" t="n">
-        <v>7.53</v>
+        <v>7.541</v>
       </c>
       <c r="Z79" t="n">
-        <v>12.563</v>
+        <v>12.626</v>
       </c>
       <c r="AA79" t="n">
-        <v>8.224</v>
+        <v>8.244</v>
       </c>
       <c r="AB79" t="n">
-        <v>9.862</v>
+        <v>9.843</v>
       </c>
       <c r="AC79" t="n">
-        <v>27.473</v>
+        <v>27.624</v>
       </c>
       <c r="AD79" t="n">
-        <v>10.776</v>
+        <v>10.764</v>
       </c>
       <c r="AE79" t="n">
-        <v>17.986</v>
+        <v>18.018</v>
       </c>
       <c r="AF79" t="s">
         <v>1108</v>
@@ -11191,70 +11191,70 @@
         <v>384</v>
       </c>
       <c r="K80" t="s">
-        <v>572</v>
+        <v>650</v>
       </c>
       <c r="L80" t="s">
-        <v>751</v>
+        <v>701</v>
       </c>
       <c r="M80" t="s">
-        <v>613</v>
+        <v>795</v>
       </c>
       <c r="N80" t="n">
-        <v>2.192</v>
+        <v>2.335</v>
       </c>
       <c r="O80" t="n">
-        <v>3.97</v>
+        <v>3.814</v>
       </c>
       <c r="P80" t="n">
-        <v>3.442</v>
+        <v>3.241</v>
       </c>
       <c r="Q80" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="R80" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="S80" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="T80" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="U80" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="V80" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="W80" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="X80" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="Y80" t="n">
-        <v>9.872</v>
+        <v>9.346</v>
       </c>
       <c r="Z80" t="n">
-        <v>12.92</v>
+        <v>11.403</v>
       </c>
       <c r="AA80" t="n">
-        <v>8.368</v>
+        <v>8.019</v>
       </c>
       <c r="AB80" t="n">
-        <v>12.788</v>
+        <v>13.141</v>
       </c>
       <c r="AC80" t="n">
-        <v>21.93</v>
+        <v>19.569</v>
       </c>
       <c r="AD80" t="n">
-        <v>10.834</v>
+        <v>11.287</v>
       </c>
       <c r="AE80" t="n">
-        <v>14.184</v>
+        <v>13.774</v>
       </c>
       <c r="AF80" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="81">
@@ -11289,67 +11289,67 @@
         <v>385</v>
       </c>
       <c r="K81" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L81" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="M81" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="N81" t="n">
-        <v>4.392</v>
+        <v>4.376</v>
       </c>
       <c r="O81" t="n">
-        <v>2.891</v>
+        <v>2.892</v>
       </c>
       <c r="P81" t="n">
-        <v>2.346</v>
+        <v>2.35</v>
       </c>
       <c r="Q81" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="R81" t="n">
-        <v>4.66</v>
+        <v>4.65</v>
       </c>
       <c r="S81" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="T81" t="n">
         <v>1.27</v>
       </c>
       <c r="U81" t="s">
-        <v>805</v>
+        <v>756</v>
       </c>
       <c r="V81" t="n">
-        <v>3.48</v>
+        <v>3.47</v>
       </c>
       <c r="W81" t="s">
-        <v>921</v>
+        <v>859</v>
       </c>
       <c r="X81" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Y81" t="n">
-        <v>7.905</v>
+        <v>7.893</v>
       </c>
       <c r="Z81" t="n">
-        <v>5.066</v>
+        <v>5.076</v>
       </c>
       <c r="AA81" t="n">
-        <v>8.143</v>
+        <v>8.13</v>
       </c>
       <c r="AB81" t="n">
-        <v>25.445</v>
+        <v>25.316</v>
       </c>
       <c r="AC81" t="n">
-        <v>10.438</v>
+        <v>10.46</v>
       </c>
       <c r="AD81" t="n">
-        <v>26.178</v>
+        <v>26.042</v>
       </c>
       <c r="AE81" t="n">
-        <v>16.779</v>
+        <v>16.75</v>
       </c>
       <c r="AF81" t="s">
         <v>1105</v>
@@ -11387,13 +11387,13 @@
         <v>386</v>
       </c>
       <c r="K82" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="L82" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="M82" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="N82" t="n">
         <v>1.551</v>
@@ -11405,25 +11405,25 @@
         <v>11.136</v>
       </c>
       <c r="Q82" t="s">
-        <v>641</v>
+        <v>842</v>
       </c>
       <c r="R82" t="n">
         <v>3.8</v>
       </c>
       <c r="S82" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="T82" t="n">
         <v>1.36</v>
       </c>
       <c r="U82" t="s">
-        <v>827</v>
+        <v>1039</v>
       </c>
       <c r="V82" t="n">
         <v>4.42</v>
       </c>
       <c r="W82" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="X82" t="n">
         <v>1.29</v>
@@ -11485,10 +11485,10 @@
         <v>387</v>
       </c>
       <c r="K83" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L83" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M83" t="s">
         <v>629</v>
@@ -11503,19 +11503,19 @@
         <v>3.334</v>
       </c>
       <c r="Q83" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="R83" t="n">
         <v>1.43</v>
       </c>
       <c r="S83" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="T83" t="n">
         <v>3.39</v>
       </c>
       <c r="U83" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="V83" t="n">
         <v>1.45</v>
@@ -11583,13 +11583,13 @@
         <v>388</v>
       </c>
       <c r="K84" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L84" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="M84" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="N84" t="n">
         <v>2.63</v>
@@ -11601,19 +11601,19 @@
         <v>2.759</v>
       </c>
       <c r="Q84" t="s">
-        <v>649</v>
+        <v>923</v>
       </c>
       <c r="R84" t="n">
         <v>1.94</v>
       </c>
       <c r="S84" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="T84" t="n">
         <v>2.06</v>
       </c>
       <c r="U84" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="V84" t="n">
         <v>1.8</v>
@@ -11681,13 +11681,13 @@
         <v>389</v>
       </c>
       <c r="K85" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L85" t="s">
         <v>704</v>
       </c>
       <c r="M85" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="N85" t="n">
         <v>6.775</v>
@@ -11699,25 +11699,25 @@
         <v>1.641</v>
       </c>
       <c r="Q85" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="R85" t="n">
         <v>2.46</v>
       </c>
       <c r="S85" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="T85" t="n">
         <v>1.69</v>
       </c>
       <c r="U85" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="V85" t="n">
         <v>2.55</v>
       </c>
       <c r="W85" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="X85" t="n">
         <v>1.65</v>
@@ -11779,13 +11779,13 @@
         <v>390</v>
       </c>
       <c r="K86" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L86" t="s">
         <v>606</v>
       </c>
       <c r="M86" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N86" t="n">
         <v>9.901</v>
@@ -11797,25 +11797,25 @@
         <v>1.39</v>
       </c>
       <c r="Q86" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="R86" t="n">
         <v>1.73</v>
       </c>
       <c r="S86" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="T86" t="n">
         <v>2.42</v>
       </c>
       <c r="U86" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="V86" t="n">
         <v>2.16</v>
       </c>
       <c r="W86" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="X86" t="n">
         <v>1.9</v>
@@ -11877,13 +11877,13 @@
         <v>391</v>
       </c>
       <c r="K87" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L87" t="s">
         <v>623</v>
       </c>
       <c r="M87" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N87" t="n">
         <v>1.788</v>
@@ -11895,7 +11895,7 @@
         <v>4.186</v>
       </c>
       <c r="Q87" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="R87" t="n">
         <v>1.29</v>
@@ -11907,13 +11907,13 @@
         <v>4.83</v>
       </c>
       <c r="U87" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="V87" t="n">
         <v>1.36</v>
       </c>
       <c r="W87" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="X87" t="n">
         <v>4.0</v>
@@ -11978,10 +11978,10 @@
         <v>590</v>
       </c>
       <c r="L88" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="M88" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="N88" t="n">
         <v>2.509</v>
@@ -11993,25 +11993,25 @@
         <v>3.296</v>
       </c>
       <c r="Q88" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="R88" t="n">
         <v>2.86</v>
       </c>
       <c r="S88" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="T88" t="n">
         <v>1.54</v>
       </c>
       <c r="U88" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="V88" t="n">
         <v>2.39</v>
       </c>
       <c r="W88" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="X88" t="n">
         <v>1.72</v>
@@ -12073,13 +12073,13 @@
         <v>393</v>
       </c>
       <c r="K89" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L89" t="s">
-        <v>705</v>
+        <v>647</v>
       </c>
       <c r="M89" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N89" t="n">
         <v>5.249</v>
@@ -12091,7 +12091,7 @@
         <v>1.663</v>
       </c>
       <c r="Q89" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="R89" t="n">
         <v>1.58</v>
@@ -12103,13 +12103,13 @@
         <v>2.79</v>
       </c>
       <c r="U89" t="s">
-        <v>1016</v>
+        <v>990</v>
       </c>
       <c r="V89" t="n">
         <v>1.68</v>
       </c>
       <c r="W89" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="X89" t="n">
         <v>2.52</v>
@@ -12171,13 +12171,13 @@
         <v>394</v>
       </c>
       <c r="K90" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L90" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M90" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="N90" t="n">
         <v>15.823</v>
@@ -12189,25 +12189,25 @@
         <v>1.384</v>
       </c>
       <c r="Q90" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="R90" t="n">
         <v>3.01</v>
       </c>
       <c r="S90" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="T90" t="n">
         <v>1.5</v>
       </c>
       <c r="U90" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="V90" t="n">
         <v>4.45</v>
       </c>
       <c r="W90" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="X90" t="n">
         <v>1.29</v>
@@ -12269,13 +12269,13 @@
         <v>395</v>
       </c>
       <c r="K91" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L91" t="s">
         <v>631</v>
       </c>
       <c r="M91" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N91" t="n">
         <v>1.545</v>
@@ -12287,25 +12287,25 @@
         <v>7.582</v>
       </c>
       <c r="Q91" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="R91" t="n">
         <v>2.18</v>
       </c>
       <c r="S91" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="T91" t="n">
         <v>1.86</v>
       </c>
       <c r="U91" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="V91" t="n">
         <v>2.41</v>
       </c>
       <c r="W91" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="X91" t="n">
         <v>1.72</v>
@@ -12367,13 +12367,13 @@
         <v>396</v>
       </c>
       <c r="K92" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L92" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M92" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="N92" t="n">
         <v>2.641</v>
@@ -12385,7 +12385,7 @@
         <v>2.971</v>
       </c>
       <c r="Q92" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="R92" t="n">
         <v>2.49</v>
@@ -12397,13 +12397,13 @@
         <v>1.67</v>
       </c>
       <c r="U92" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="V92" t="n">
         <v>2.15</v>
       </c>
       <c r="W92" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="X92" t="n">
         <v>1.87</v>
@@ -12465,13 +12465,13 @@
         <v>397</v>
       </c>
       <c r="K93" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L93" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="M93" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="N93" t="n">
         <v>21.368</v>
@@ -12483,25 +12483,25 @@
         <v>1.236</v>
       </c>
       <c r="Q93" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="R93" t="n">
         <v>1.4</v>
       </c>
       <c r="S93" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="T93" t="n">
         <v>4.26</v>
       </c>
       <c r="U93" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="V93" t="n">
         <v>2.15</v>
       </c>
       <c r="W93" t="s">
-        <v>926</v>
+        <v>1091</v>
       </c>
       <c r="X93" t="n">
         <v>2.07</v>
@@ -12563,13 +12563,13 @@
         <v>398</v>
       </c>
       <c r="K94" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="L94" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="M94" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="N94" t="n">
         <v>2.185</v>
@@ -12581,19 +12581,19 @@
         <v>5.546</v>
       </c>
       <c r="Q94" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="R94" t="n">
         <v>5.77</v>
       </c>
       <c r="S94" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="T94" t="n">
         <v>1.21</v>
       </c>
       <c r="U94" t="s">
-        <v>869</v>
+        <v>825</v>
       </c>
       <c r="V94" t="n">
         <v>4.29</v>
@@ -12661,13 +12661,13 @@
         <v>399</v>
       </c>
       <c r="K95" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L95" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="M95" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="N95" t="n">
         <v>3.454</v>
@@ -12679,25 +12679,25 @@
         <v>2.431</v>
       </c>
       <c r="Q95" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="R95" t="n">
         <v>2.92</v>
       </c>
       <c r="S95" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="T95" t="n">
         <v>1.52</v>
       </c>
       <c r="U95" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="V95" t="n">
         <v>2.43</v>
       </c>
       <c r="W95" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="X95" t="n">
         <v>1.7</v>
@@ -12759,10 +12759,10 @@
         <v>400</v>
       </c>
       <c r="K96" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L96" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="M96" t="s">
         <v>696</v>
@@ -12777,19 +12777,19 @@
         <v>1.738</v>
       </c>
       <c r="Q96" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="R96" t="n">
         <v>1.38</v>
       </c>
       <c r="S96" t="s">
-        <v>641</v>
+        <v>842</v>
       </c>
       <c r="T96" t="n">
         <v>3.8</v>
       </c>
       <c r="U96" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="V96" t="n">
         <v>1.46</v>
@@ -12860,10 +12860,10 @@
         <v>622</v>
       </c>
       <c r="L97" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M97" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="N97" t="n">
         <v>3.223</v>
@@ -12875,13 +12875,13 @@
         <v>2.248</v>
       </c>
       <c r="Q97" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="R97" t="n">
         <v>1.78</v>
       </c>
       <c r="S97" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="T97" t="n">
         <v>2.28</v>
@@ -12893,7 +12893,7 @@
         <v>1.71</v>
       </c>
       <c r="W97" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="X97" t="n">
         <v>2.42</v>
@@ -12955,13 +12955,13 @@
         <v>402</v>
       </c>
       <c r="K98" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L98" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M98" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="N98" t="n">
         <v>1.401</v>
@@ -12973,19 +12973,19 @@
         <v>10.695</v>
       </c>
       <c r="Q98" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="R98" t="n">
         <v>2.08</v>
       </c>
       <c r="S98" t="s">
-        <v>649</v>
+        <v>923</v>
       </c>
       <c r="T98" t="n">
         <v>1.95</v>
       </c>
       <c r="U98" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="V98" t="n">
         <v>2.64</v>
@@ -13053,13 +13053,13 @@
         <v>403</v>
       </c>
       <c r="K99" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L99" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="M99" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
       <c r="N99" t="n">
         <v>3.705</v>
@@ -13071,25 +13071,25 @@
         <v>2.263</v>
       </c>
       <c r="Q99" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="R99" t="n">
         <v>2.7</v>
       </c>
       <c r="S99" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="T99" t="n">
         <v>1.59</v>
       </c>
       <c r="U99" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="V99" t="n">
         <v>2.33</v>
       </c>
       <c r="W99" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="X99" t="n">
         <v>1.75</v>
@@ -13151,7 +13151,7 @@
         <v>404</v>
       </c>
       <c r="K100" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L100" t="s">
         <v>622</v>
@@ -13169,25 +13169,25 @@
         <v>2.146</v>
       </c>
       <c r="Q100" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="R100" t="n">
         <v>3.48</v>
       </c>
       <c r="S100" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="T100" t="n">
         <v>1.4</v>
       </c>
       <c r="U100" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="V100" t="n">
         <v>2.87</v>
       </c>
       <c r="W100" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="X100" t="n">
         <v>1.53</v>
@@ -13249,13 +13249,13 @@
         <v>405</v>
       </c>
       <c r="K101" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L101" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M101" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="N101" t="n">
         <v>1.639</v>
@@ -13267,25 +13267,25 @@
         <v>6.238</v>
       </c>
       <c r="Q101" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="R101" t="n">
         <v>2.11</v>
       </c>
       <c r="S101" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="T101" t="n">
         <v>1.91</v>
       </c>
       <c r="U101" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="V101" t="n">
         <v>2.21</v>
       </c>
       <c r="W101" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="X101" t="n">
         <v>1.84</v>
@@ -13347,13 +13347,13 @@
         <v>406</v>
       </c>
       <c r="K102" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L102" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="M102" t="s">
-        <v>641</v>
+        <v>842</v>
       </c>
       <c r="N102" t="n">
         <v>1.97</v>
@@ -13365,25 +13365,25 @@
         <v>3.797</v>
       </c>
       <c r="Q102" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="R102" t="n">
         <v>1.64</v>
       </c>
       <c r="S102" t="s">
-        <v>941</v>
+        <v>644</v>
       </c>
       <c r="T102" t="n">
         <v>2.58</v>
       </c>
       <c r="U102" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="V102" t="n">
         <v>1.64</v>
       </c>
       <c r="W102" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="X102" t="n">
         <v>2.59</v>
@@ -13445,13 +13445,13 @@
         <v>407</v>
       </c>
       <c r="K103" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="L103" t="s">
         <v>574</v>
       </c>
       <c r="M103" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N103" t="n">
         <v>2.978</v>
@@ -13463,25 +13463,25 @@
         <v>2.266</v>
       </c>
       <c r="Q103" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="R103" t="n">
         <v>1.44</v>
       </c>
       <c r="S103" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="T103" t="n">
         <v>3.31</v>
       </c>
       <c r="U103" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="V103" t="n">
         <v>1.45</v>
       </c>
       <c r="W103" t="s">
-        <v>642</v>
+        <v>1094</v>
       </c>
       <c r="X103" t="n">
         <v>3.28</v>
@@ -13543,13 +13543,13 @@
         <v>408</v>
       </c>
       <c r="K104" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L104" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="M104" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="N104" t="n">
         <v>3.067</v>
@@ -13561,25 +13561,25 @@
         <v>2.362</v>
       </c>
       <c r="Q104" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="R104" t="n">
         <v>1.85</v>
       </c>
       <c r="S104" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="T104" t="n">
         <v>2.18</v>
       </c>
       <c r="U104" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="V104" t="n">
         <v>1.75</v>
       </c>
       <c r="W104" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="X104" t="n">
         <v>2.35</v>
@@ -13641,13 +13641,13 @@
         <v>409</v>
       </c>
       <c r="K105" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L105" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="M105" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="N105" t="n">
         <v>1.986</v>
@@ -13671,13 +13671,13 @@
         <v>1.33</v>
       </c>
       <c r="U105" t="s">
-        <v>1052</v>
+        <v>743</v>
       </c>
       <c r="V105" t="n">
         <v>3.42</v>
       </c>
       <c r="W105" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="X105" t="n">
         <v>1.41</v>
@@ -13739,13 +13739,13 @@
         <v>410</v>
       </c>
       <c r="K106" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L106" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="M106" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="N106" t="n">
         <v>10.917</v>
@@ -13757,13 +13757,13 @@
         <v>1.341</v>
       </c>
       <c r="Q106" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="R106" t="n">
         <v>1.43</v>
       </c>
       <c r="S106" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="T106" t="n">
         <v>3.63</v>
@@ -13775,7 +13775,7 @@
         <v>1.83</v>
       </c>
       <c r="W106" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="X106" t="n">
         <v>2.35</v>
@@ -13837,13 +13837,13 @@
         <v>411</v>
       </c>
       <c r="K107" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L107" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="M107" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="N107" t="n">
         <v>5.504</v>
@@ -13855,25 +13855,25 @@
         <v>1.735</v>
       </c>
       <c r="Q107" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="R107" t="n">
         <v>2.19</v>
       </c>
       <c r="S107" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="T107" t="n">
         <v>1.85</v>
       </c>
       <c r="U107" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="V107" t="n">
         <v>2.19</v>
       </c>
       <c r="W107" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="X107" t="n">
         <v>1.85</v>
@@ -13935,13 +13935,13 @@
         <v>412</v>
       </c>
       <c r="K108" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L108" t="s">
         <v>635</v>
       </c>
       <c r="M108" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="N108" t="n">
         <v>1.233</v>
@@ -13953,25 +13953,25 @@
         <v>23.256</v>
       </c>
       <c r="Q108" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="R108" t="n">
         <v>1.97</v>
       </c>
       <c r="S108" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="T108" t="n">
         <v>2.08</v>
       </c>
       <c r="U108" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="V108" t="n">
         <v>3.57</v>
       </c>
       <c r="W108" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="X108" t="n">
         <v>1.41</v>
@@ -14033,13 +14033,13 @@
         <v>413</v>
       </c>
       <c r="K109" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L109" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M109" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="N109" t="n">
         <v>9.862</v>
@@ -14057,7 +14057,7 @@
         <v>2.45</v>
       </c>
       <c r="S109" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="T109" t="n">
         <v>1.7</v>
@@ -14069,7 +14069,7 @@
         <v>2.94</v>
       </c>
       <c r="W109" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="X109" t="n">
         <v>1.52</v>
@@ -14131,13 +14131,13 @@
         <v>414</v>
       </c>
       <c r="K110" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L110" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="M110" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N110" t="n">
         <v>1.471</v>
@@ -14149,25 +14149,25 @@
         <v>8.446</v>
       </c>
       <c r="Q110" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="R110" t="n">
         <v>1.97</v>
       </c>
       <c r="S110" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="T110" t="n">
         <v>2.05</v>
       </c>
       <c r="U110" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="V110" t="n">
         <v>2.3</v>
       </c>
       <c r="W110" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="X110" t="n">
         <v>1.78</v>
@@ -14229,13 +14229,13 @@
         <v>415</v>
       </c>
       <c r="K111" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="L111" t="s">
-        <v>705</v>
+        <v>647</v>
       </c>
       <c r="M111" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="N111" t="n">
         <v>13.605</v>
@@ -14247,19 +14247,19 @@
         <v>1.383</v>
       </c>
       <c r="Q111" t="s">
-        <v>941</v>
+        <v>644</v>
       </c>
       <c r="R111" t="n">
         <v>2.58</v>
       </c>
       <c r="S111" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="T111" t="n">
         <v>1.64</v>
       </c>
       <c r="U111" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="V111" t="n">
         <v>3.58</v>
@@ -14327,13 +14327,13 @@
         <v>416</v>
       </c>
       <c r="K112" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L112" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M112" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="N112" t="n">
         <v>2.777</v>
@@ -14345,25 +14345,25 @@
         <v>2.464</v>
       </c>
       <c r="Q112" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="R112" t="n">
         <v>1.59</v>
       </c>
       <c r="S112" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="T112" t="n">
         <v>2.73</v>
       </c>
       <c r="U112" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="V112" t="n">
         <v>1.55</v>
       </c>
       <c r="W112" t="s">
-        <v>1095</v>
+        <v>918</v>
       </c>
       <c r="X112" t="n">
         <v>2.84</v>
@@ -14425,13 +14425,13 @@
         <v>417</v>
       </c>
       <c r="K113" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L113" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M113" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="N113" t="n">
         <v>5.123</v>
@@ -14449,13 +14449,13 @@
         <v>2.07</v>
       </c>
       <c r="S113" t="s">
-        <v>649</v>
+        <v>923</v>
       </c>
       <c r="T113" t="n">
         <v>1.95</v>
       </c>
       <c r="U113" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="V113" t="n">
         <v>2.06</v>
@@ -14523,13 +14523,13 @@
         <v>418</v>
       </c>
       <c r="K114" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L114" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="M114" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="N114" t="n">
         <v>2.023</v>
@@ -14541,25 +14541,25 @@
         <v>7.246</v>
       </c>
       <c r="Q114" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="R114" t="n">
         <v>6.72</v>
       </c>
       <c r="S114" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="T114" t="n">
         <v>1.18</v>
       </c>
       <c r="U114" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="V114" t="n">
         <v>5.29</v>
       </c>
       <c r="W114" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="X114" t="n">
         <v>1.23</v>
@@ -14621,13 +14621,13 @@
         <v>419</v>
       </c>
       <c r="K115" t="s">
-        <v>681</v>
+        <v>650</v>
       </c>
       <c r="L115" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="M115" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N115" t="n">
         <v>2.335</v>
@@ -14639,25 +14639,25 @@
         <v>3.846</v>
       </c>
       <c r="Q115" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="R115" t="n">
         <v>3.35</v>
       </c>
       <c r="S115" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="T115" t="n">
         <v>1.43</v>
       </c>
       <c r="U115" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="V115" t="n">
         <v>2.71</v>
       </c>
       <c r="W115" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="X115" t="n">
         <v>1.58</v>
@@ -14722,7 +14722,7 @@
         <v>682</v>
       </c>
       <c r="L116" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="M116" t="s">
         <v>703</v>
@@ -14737,19 +14737,19 @@
         <v>4.338</v>
       </c>
       <c r="Q116" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="R116" t="n">
         <v>10.86</v>
       </c>
       <c r="S116" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="T116" t="n">
         <v>1.1</v>
       </c>
       <c r="U116" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="V116" t="n">
         <v>5.98</v>
@@ -14820,10 +14820,10 @@
         <v>683</v>
       </c>
       <c r="L117" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="M117" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="N117" t="n">
         <v>2.148</v>
@@ -14835,19 +14835,19 @@
         <v>3.722</v>
       </c>
       <c r="Q117" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="R117" t="n">
         <v>2.23</v>
       </c>
       <c r="S117" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="T117" t="n">
         <v>1.81</v>
       </c>
       <c r="U117" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="V117" t="n">
         <v>2.04</v>
@@ -14918,10 +14918,10 @@
         <v>684</v>
       </c>
       <c r="L118" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="M118" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N118" t="n">
         <v>1.255</v>
@@ -14933,13 +14933,13 @@
         <v>18.45</v>
       </c>
       <c r="Q118" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="R118" t="n">
         <v>1.38</v>
       </c>
       <c r="S118" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="T118" t="n">
         <v>4.4</v>
@@ -15016,10 +15016,10 @@
         <v>685</v>
       </c>
       <c r="L119" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="M119" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="N119" t="n">
         <v>13.21</v>
@@ -15031,25 +15031,25 @@
         <v>1.323</v>
       </c>
       <c r="Q119" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="R119" t="n">
         <v>1.85</v>
       </c>
       <c r="S119" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="T119" t="n">
         <v>2.23</v>
       </c>
       <c r="U119" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="V119" t="n">
         <v>2.56</v>
       </c>
       <c r="W119" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="X119" t="n">
         <v>1.67</v>
@@ -15114,10 +15114,10 @@
         <v>686</v>
       </c>
       <c r="L120" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="M120" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="N120" t="n">
         <v>4.031</v>
@@ -15129,19 +15129,19 @@
         <v>2.666</v>
       </c>
       <c r="Q120" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="R120" t="n">
         <v>5.86</v>
       </c>
       <c r="S120" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="T120" t="n">
         <v>1.21</v>
       </c>
       <c r="U120" t="s">
-        <v>751</v>
+        <v>959</v>
       </c>
       <c r="V120" t="n">
         <v>3.97</v>
@@ -15212,10 +15212,10 @@
         <v>598</v>
       </c>
       <c r="L121" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="M121" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="N121" t="n">
         <v>1.457</v>
@@ -15227,19 +15227,19 @@
         <v>8.237</v>
       </c>
       <c r="Q121" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="R121" t="n">
         <v>1.77</v>
       </c>
       <c r="S121" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="T121" t="n">
         <v>2.34</v>
       </c>
       <c r="U121" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="V121" t="n">
         <v>2.07</v>
@@ -15310,10 +15310,10 @@
         <v>687</v>
       </c>
       <c r="L122" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="M122" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="N122" t="n">
         <v>1.285</v>
@@ -15325,25 +15325,25 @@
         <v>16.892</v>
       </c>
       <c r="Q122" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="R122" t="n">
         <v>2.0</v>
       </c>
       <c r="S122" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="T122" t="n">
         <v>2.04</v>
       </c>
       <c r="U122" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="V122" t="n">
         <v>3.1</v>
       </c>
       <c r="W122" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="X122" t="n">
         <v>1.5</v>
@@ -15408,10 +15408,10 @@
         <v>688</v>
       </c>
       <c r="L123" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="M123" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="N123" t="n">
         <v>9.597</v>
@@ -15423,25 +15423,25 @@
         <v>1.406</v>
       </c>
       <c r="Q123" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="R123" t="n">
         <v>1.8</v>
       </c>
       <c r="S123" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="T123" t="n">
         <v>2.29</v>
       </c>
       <c r="U123" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="V123" t="n">
         <v>2.22</v>
       </c>
       <c r="W123" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="X123" t="n">
         <v>1.85</v>
@@ -15506,10 +15506,10 @@
         <v>689</v>
       </c>
       <c r="L124" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="M124" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="N124" t="n">
         <v>18.797</v>
@@ -15521,13 +15521,13 @@
         <v>1.396</v>
       </c>
       <c r="Q124" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="R124" t="n">
         <v>3.63</v>
       </c>
       <c r="S124" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="T124" t="n">
         <v>1.38</v>
@@ -15604,10 +15604,10 @@
         <v>690</v>
       </c>
       <c r="L125" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M125" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="N125" t="n">
         <v>2.798</v>
@@ -15619,13 +15619,13 @@
         <v>2.705</v>
       </c>
       <c r="Q125" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="R125" t="n">
         <v>2.24</v>
       </c>
       <c r="S125" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="T125" t="n">
         <v>1.81</v>
@@ -15702,7 +15702,7 @@
         <v>691</v>
       </c>
       <c r="L126" t="s">
-        <v>705</v>
+        <v>647</v>
       </c>
       <c r="M126" t="s">
         <v>616</v>
@@ -15717,25 +15717,25 @@
         <v>2.119</v>
       </c>
       <c r="Q126" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="R126" t="n">
         <v>1.31</v>
       </c>
       <c r="S126" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="T126" t="n">
         <v>4.44</v>
       </c>
       <c r="U126" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="V126" t="n">
         <v>1.35</v>
       </c>
       <c r="W126" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="X126" t="n">
         <v>4.06</v>
@@ -15800,10 +15800,10 @@
         <v>692</v>
       </c>
       <c r="L127" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="M127" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N127" t="n">
         <v>8.224</v>
@@ -15815,19 +15815,19 @@
         <v>1.604</v>
       </c>
       <c r="Q127" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="R127" t="n">
         <v>3.02</v>
       </c>
       <c r="S127" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="T127" t="n">
         <v>1.5</v>
       </c>
       <c r="U127" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="V127" t="n">
         <v>3.21</v>
@@ -15898,7 +15898,7 @@
         <v>693</v>
       </c>
       <c r="L128" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="M128" t="s">
         <v>691</v>
@@ -15913,25 +15913,25 @@
         <v>3.162</v>
       </c>
       <c r="Q128" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="R128" t="n">
         <v>3.58</v>
       </c>
       <c r="S128" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="T128" t="n">
         <v>1.39</v>
       </c>
       <c r="U128" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="V128" t="n">
         <v>2.78</v>
       </c>
       <c r="W128" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="X128" t="n">
         <v>1.56</v>
@@ -15996,10 +15996,10 @@
         <v>694</v>
       </c>
       <c r="L129" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="M129" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="N129" t="n">
         <v>2.944</v>
@@ -16011,25 +16011,25 @@
         <v>2.308</v>
       </c>
       <c r="Q129" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="R129" t="n">
         <v>1.5</v>
       </c>
       <c r="S129" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="T129" t="n">
         <v>3.05</v>
       </c>
       <c r="U129" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="V129" t="n">
         <v>1.49</v>
       </c>
       <c r="W129" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="X129" t="n">
         <v>3.08</v>
@@ -16094,10 +16094,10 @@
         <v>695</v>
       </c>
       <c r="L130" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="M130" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N130" t="n">
         <v>1.706</v>
@@ -16109,19 +16109,19 @@
         <v>6.964</v>
       </c>
       <c r="Q130" t="s">
-        <v>743</v>
+        <v>946</v>
       </c>
       <c r="R130" t="n">
         <v>3.13</v>
       </c>
       <c r="S130" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="T130" t="n">
         <v>1.47</v>
       </c>
       <c r="U130" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="V130" t="n">
         <v>3.08</v>
@@ -16192,10 +16192,10 @@
         <v>696</v>
       </c>
       <c r="L131" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M131" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="N131" t="n">
         <v>1.739</v>
@@ -16207,25 +16207,25 @@
         <v>5.045</v>
       </c>
       <c r="Q131" t="s">
-        <v>646</v>
+        <v>947</v>
       </c>
       <c r="R131" t="n">
         <v>1.83</v>
       </c>
       <c r="S131" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="T131" t="n">
         <v>2.21</v>
       </c>
       <c r="U131" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="V131" t="n">
         <v>1.88</v>
       </c>
       <c r="W131" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="X131" t="n">
         <v>2.16</v>
@@ -16293,7 +16293,7 @@
         <v>631</v>
       </c>
       <c r="M132" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="N132" t="n">
         <v>2.448</v>
@@ -16305,7 +16305,7 @@
         <v>2.717</v>
       </c>
       <c r="Q132" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="R132" t="n">
         <v>1.43</v>
@@ -16317,13 +16317,13 @@
         <v>3.38</v>
       </c>
       <c r="U132" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="V132" t="n">
         <v>1.44</v>
       </c>
       <c r="W132" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="X132" t="n">
         <v>3.36</v>
@@ -16388,10 +16388,10 @@
         <v>698</v>
       </c>
       <c r="L133" t="s">
-        <v>745</v>
+        <v>776</v>
       </c>
       <c r="M133" t="s">
-        <v>869</v>
+        <v>825</v>
       </c>
       <c r="N133" t="n">
         <v>2.252</v>
@@ -16403,25 +16403,25 @@
         <v>4.29</v>
       </c>
       <c r="Q133" t="s">
-        <v>641</v>
+        <v>842</v>
       </c>
       <c r="R133" t="n">
         <v>3.8</v>
       </c>
       <c r="S133" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="T133" t="n">
         <v>1.36</v>
       </c>
       <c r="U133" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="V133" t="n">
         <v>3.02</v>
       </c>
       <c r="W133" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="X133" t="n">
         <v>1.5</v>
@@ -16486,10 +16486,10 @@
         <v>610</v>
       </c>
       <c r="L134" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="M134" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="N134" t="n">
         <v>1.528</v>
@@ -16501,13 +16501,13 @@
         <v>7.855</v>
       </c>
       <c r="Q134" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="R134" t="n">
         <v>2.18</v>
       </c>
       <c r="S134" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="T134" t="n">
         <v>1.86</v>
@@ -16519,7 +16519,7 @@
         <v>2.44</v>
       </c>
       <c r="W134" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="X134" t="n">
         <v>1.7</v>
@@ -16584,10 +16584,10 @@
         <v>699</v>
       </c>
       <c r="L135" t="s">
-        <v>744</v>
+        <v>778</v>
       </c>
       <c r="M135" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="N135" t="n">
         <v>1.673</v>
@@ -16599,25 +16599,25 @@
         <v>9.259</v>
       </c>
       <c r="Q135" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="R135" t="n">
         <v>4.32</v>
       </c>
       <c r="S135" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="T135" t="n">
         <v>1.3</v>
       </c>
       <c r="U135" t="s">
-        <v>827</v>
+        <v>1039</v>
       </c>
       <c r="V135" t="n">
         <v>4.42</v>
       </c>
       <c r="W135" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="X135" t="n">
         <v>1.29</v>
@@ -16682,10 +16682,10 @@
         <v>635</v>
       </c>
       <c r="L136" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M136" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="N136" t="n">
         <v>7.391</v>
@@ -16703,13 +16703,13 @@
         <v>2.45</v>
       </c>
       <c r="S136" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="T136" t="n">
         <v>1.7</v>
       </c>
       <c r="U136" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="V136" t="n">
         <v>2.62</v>
@@ -16780,10 +16780,10 @@
         <v>700</v>
       </c>
       <c r="L137" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M137" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="N137" t="n">
         <v>1.447</v>
@@ -16795,25 +16795,25 @@
         <v>10.616</v>
       </c>
       <c r="Q137" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="R137" t="n">
         <v>2.49</v>
       </c>
       <c r="S137" t="s">
-        <v>1016</v>
+        <v>990</v>
       </c>
       <c r="T137" t="n">
         <v>1.68</v>
       </c>
       <c r="U137" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="V137" t="n">
         <v>3.08</v>
       </c>
       <c r="W137" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="X137" t="n">
         <v>1.49</v>

--- a/picks_fixtures_prediction_cloned.xlsx
+++ b/picks_fixtures_prediction_cloned.xlsx
@@ -1,25 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11580"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="188">
   <si>
     <t>X</t>
   </si>
@@ -174,7 +167,7 @@
     <t>D2</t>
   </si>
   <si>
-    <t>St. Liege</t>
+    <t>Standard</t>
   </si>
   <si>
     <t>Charleroi</t>
@@ -291,7 +284,7 @@
     <t>2022-07-24</t>
   </si>
   <si>
-    <t>St. Liege-Gent</t>
+    <t>Standard-Gent</t>
   </si>
   <si>
     <t>Charleroi-Eupen</t>
@@ -345,6 +338,9 @@
     <t>Karlsruhe-Magdeburg</t>
   </si>
   <si>
+    <t>20.5%</t>
+  </si>
+  <si>
     <t>48.1%</t>
   </si>
   <si>
@@ -378,6 +374,9 @@
     <t>61.5%</t>
   </si>
   <si>
+    <t>32.4%</t>
+  </si>
+  <si>
     <t>27.1%</t>
   </si>
   <si>
@@ -408,6 +407,9 @@
     <t>20.1%</t>
   </si>
   <si>
+    <t>47.1%</t>
+  </si>
+  <si>
     <t>24.7%</t>
   </si>
   <si>
@@ -462,6 +464,9 @@
     <t>61.0%</t>
   </si>
   <si>
+    <t>75.3%</t>
+  </si>
+  <si>
     <t>58.7%</t>
   </si>
   <si>
@@ -495,6 +500,9 @@
     <t>38.4%</t>
   </si>
   <si>
+    <t>30.7%</t>
+  </si>
+  <si>
     <t>52.4%</t>
   </si>
   <si>
@@ -523,6 +531,9 @@
   </si>
   <si>
     <t>56.9%</t>
+  </si>
+  <si>
+    <t>69.3%</t>
   </si>
   <si>
     <t>54.4%</t>
@@ -570,10 +581,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -585,7 +597,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -603,320 +615,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1011,12 +722,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
@@ -1033,88 +744,88 @@
       <c r="G2" t="s">
         <v>90</v>
       </c>
-      <c r="H2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF2" t="e">
-        <v>#N/A</v>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.885</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.088</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S2" t="s">
+        <v>150</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>162</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="W2" t="s">
+        <v>173</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.033</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5.058</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>8.21</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>29.326</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9.191</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>26.667</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>14.903</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="n">
+        <v>2.0</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
@@ -1141,78 +852,78 @@
         <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M3" t="s">
-        <v>129</v>
-      </c>
-      <c r="N3">
+        <v>132</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.077</v>
       </c>
-      <c r="O3">
-        <v>3.6909999999999998</v>
-      </c>
-      <c r="P3">
-        <v>4.0469999999999997</v>
+      <c r="O3" t="n">
+        <v>3.691</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.047</v>
       </c>
       <c r="Q3" t="s">
-        <v>138</v>
-      </c>
-      <c r="R3">
-        <v>2.4300000000000002</v>
+        <v>141</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.43</v>
       </c>
       <c r="S3" t="s">
-        <v>147</v>
-      </c>
-      <c r="T3">
+        <v>151</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.7</v>
       </c>
       <c r="U3" t="s">
-        <v>153</v>
-      </c>
-      <c r="V3">
-        <v>2.2000000000000002</v>
+        <v>157</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.2</v>
       </c>
       <c r="W3" t="s">
-        <v>168</v>
-      </c>
-      <c r="X3">
+        <v>174</v>
+      </c>
+      <c r="X3" t="n">
         <v>1.84</v>
       </c>
-      <c r="Y3">
-        <v>7.3209999999999997</v>
-      </c>
-      <c r="Z3">
+      <c r="Y3" t="n">
+        <v>7.321</v>
+      </c>
+      <c r="Z3" t="n">
         <v>11.148</v>
       </c>
-      <c r="AA3">
-        <v>7.9180000000000001</v>
-      </c>
-      <c r="AB3">
+      <c r="AA3" t="n">
+        <v>7.918</v>
+      </c>
+      <c r="AB3" t="n">
         <v>10.395</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>24.096</v>
       </c>
-      <c r="AD3">
-        <v>11.236000000000001</v>
-      </c>
-      <c r="AE3">
-        <v>17.123000000000001</v>
+      <c r="AD3" t="n">
+        <v>11.236</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17.123</v>
       </c>
       <c r="AF3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="n">
+        <v>3.0</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -1239,78 +950,78 @@
         <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N4">
-        <v>3.0150000000000001</v>
-      </c>
-      <c r="O4">
-        <v>3.7919999999999998</v>
-      </c>
-      <c r="P4">
+        <v>133</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="P4" t="n">
         <v>2.476</v>
       </c>
       <c r="Q4" t="s">
-        <v>139</v>
-      </c>
-      <c r="R4">
+        <v>142</v>
+      </c>
+      <c r="R4" t="n">
         <v>2.09</v>
       </c>
       <c r="S4" t="s">
-        <v>148</v>
-      </c>
-      <c r="T4">
+        <v>152</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.92</v>
       </c>
       <c r="U4" t="s">
-        <v>158</v>
-      </c>
-      <c r="V4">
+        <v>163</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.91</v>
       </c>
       <c r="W4" t="s">
-        <v>169</v>
-      </c>
-      <c r="X4">
+        <v>175</v>
+      </c>
+      <c r="X4" t="n">
         <v>2.11</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>10.929</v>
       </c>
-      <c r="Z4">
-        <v>9.6989999999999998</v>
-      </c>
-      <c r="AA4">
-        <v>7.9740000000000002</v>
-      </c>
-      <c r="AB4">
-        <v>17.952999999999999</v>
-      </c>
-      <c r="AC4">
+      <c r="Z4" t="n">
+        <v>9.699</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7.974</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>17.953</v>
+      </c>
+      <c r="AC4" t="n">
         <v>14.144</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>13.106</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>11.628</v>
       </c>
       <c r="AF4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="n">
+        <v>4.0</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
@@ -1337,78 +1048,78 @@
         <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M5" t="s">
-        <v>131</v>
-      </c>
-      <c r="N5">
-        <v>16.260000000000002</v>
-      </c>
-      <c r="O5">
-        <v>7.7460000000000004</v>
-      </c>
-      <c r="P5">
-        <v>1.2649999999999999</v>
+        <v>134</v>
+      </c>
+      <c r="N5" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7.746</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.265</v>
       </c>
       <c r="Q5" t="s">
-        <v>118</v>
-      </c>
-      <c r="R5">
+        <v>119</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.63</v>
       </c>
       <c r="S5" t="s">
-        <v>149</v>
-      </c>
-      <c r="T5">
+        <v>153</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.73</v>
       </c>
       <c r="U5" t="s">
-        <v>159</v>
-      </c>
-      <c r="V5">
+        <v>164</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.42</v>
       </c>
       <c r="W5" t="s">
-        <v>170</v>
-      </c>
-      <c r="X5">
+        <v>176</v>
+      </c>
+      <c r="X5" t="n">
         <v>1.76</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>43.29</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>9.843</v>
       </c>
-      <c r="AA5">
-        <v>16.286999999999999</v>
-      </c>
-      <c r="AB5">
+      <c r="AA5" t="n">
+        <v>16.287</v>
+      </c>
+      <c r="AB5" t="n">
         <v>142.857</v>
       </c>
-      <c r="AC5">
-        <v>7.3959999999999999</v>
-      </c>
-      <c r="AD5">
-        <v>53.762999999999998</v>
-      </c>
-      <c r="AE5">
+      <c r="AC5" t="n">
+        <v>7.396</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>53.763</v>
+      </c>
+      <c r="AE5" t="n">
         <v>12.24</v>
       </c>
       <c r="AF5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" t="n">
+        <v>5.0</v>
       </c>
       <c r="C6" t="s">
         <v>49</v>
@@ -1435,78 +1146,78 @@
         <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M6" t="s">
-        <v>132</v>
-      </c>
-      <c r="N6">
-        <v>1.7110000000000001</v>
-      </c>
-      <c r="O6">
+        <v>135</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="O6" t="n">
         <v>4.99</v>
       </c>
-      <c r="P6">
-        <v>4.8220000000000001</v>
+      <c r="P6" t="n">
+        <v>4.822</v>
       </c>
       <c r="Q6" t="s">
-        <v>140</v>
-      </c>
-      <c r="R6">
+        <v>143</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.51</v>
       </c>
       <c r="S6" t="s">
-        <v>150</v>
-      </c>
-      <c r="T6">
+        <v>154</v>
+      </c>
+      <c r="T6" t="n">
         <v>3.02</v>
       </c>
       <c r="U6" t="s">
-        <v>160</v>
-      </c>
-      <c r="V6">
+        <v>165</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.59</v>
       </c>
       <c r="W6" t="s">
-        <v>155</v>
-      </c>
-      <c r="X6">
+        <v>159</v>
+      </c>
+      <c r="X6" t="n">
         <v>2.74</v>
       </c>
-      <c r="Y6">
-        <v>14.244999999999999</v>
-      </c>
-      <c r="Z6">
+      <c r="Y6" t="n">
+        <v>14.245</v>
+      </c>
+      <c r="Z6" t="n">
         <v>25.253</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>11.468</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>12.92</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>40.65</v>
       </c>
-      <c r="AD6">
-        <v>10.406000000000001</v>
-      </c>
-      <c r="AE6">
+      <c r="AD6" t="n">
+        <v>10.406</v>
+      </c>
+      <c r="AE6" t="n">
         <v>18.45</v>
       </c>
       <c r="AF6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="B7" t="n">
+        <v>6.0</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
@@ -1533,78 +1244,78 @@
         <v>74</v>
       </c>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M7" t="s">
-        <v>133</v>
-      </c>
-      <c r="N7">
-        <v>1.5740000000000001</v>
-      </c>
-      <c r="O7">
-        <v>4.8520000000000003</v>
-      </c>
-      <c r="P7">
-        <v>6.5019999999999998</v>
+        <v>136</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.574</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.852</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.502</v>
       </c>
       <c r="Q7" t="s">
-        <v>141</v>
-      </c>
-      <c r="R7">
+        <v>144</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.83</v>
       </c>
       <c r="S7" t="s">
-        <v>151</v>
-      </c>
-      <c r="T7">
+        <v>155</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.23</v>
       </c>
       <c r="U7" t="s">
-        <v>161</v>
-      </c>
-      <c r="V7">
+        <v>166</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.99</v>
       </c>
       <c r="W7" t="s">
-        <v>171</v>
-      </c>
-      <c r="X7">
+        <v>177</v>
+      </c>
+      <c r="X7" t="n">
         <v>2.02</v>
       </c>
-      <c r="Y7">
-        <v>8.8889999999999993</v>
-      </c>
-      <c r="Z7">
-        <v>20.576000000000001</v>
-      </c>
-      <c r="AA7">
+      <c r="Y7" t="n">
+        <v>8.889</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>20.576</v>
+      </c>
+      <c r="AA7" t="n">
         <v>10.215</v>
       </c>
-      <c r="AB7">
-        <v>8.8260000000000005</v>
-      </c>
-      <c r="AC7">
+      <c r="AB7" t="n">
+        <v>8.826</v>
+      </c>
+      <c r="AC7" t="n">
         <v>47.17</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>10.132</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>23.474</v>
       </c>
       <c r="AF7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8">
-        <v>7</v>
+      <c r="B8" t="n">
+        <v>7.0</v>
       </c>
       <c r="C8" t="s">
         <v>49</v>
@@ -1631,78 +1342,78 @@
         <v>75</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8">
+        <v>137</v>
+      </c>
+      <c r="N8" t="n">
         <v>1.728</v>
       </c>
-      <c r="O8">
-        <v>4.9329999999999998</v>
-      </c>
-      <c r="P8">
-        <v>4.7300000000000004</v>
+      <c r="O8" t="n">
+        <v>4.933</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.73</v>
       </c>
       <c r="Q8" t="s">
-        <v>142</v>
-      </c>
-      <c r="R8">
+        <v>145</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.52</v>
       </c>
       <c r="S8" t="s">
-        <v>152</v>
-      </c>
-      <c r="T8">
+        <v>156</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.97</v>
       </c>
       <c r="U8" t="s">
-        <v>162</v>
-      </c>
-      <c r="V8">
+        <v>167</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.6</v>
       </c>
       <c r="W8" t="s">
-        <v>172</v>
-      </c>
-      <c r="X8">
+        <v>178</v>
+      </c>
+      <c r="X8" t="n">
         <v>2.72</v>
       </c>
-      <c r="Y8">
-        <v>13.986000000000001</v>
-      </c>
-      <c r="Z8">
+      <c r="Y8" t="n">
+        <v>13.986</v>
+      </c>
+      <c r="Z8" t="n">
         <v>24.51</v>
       </c>
-      <c r="AA8">
-        <v>11.273999999999999</v>
-      </c>
-      <c r="AB8">
+      <c r="AA8" t="n">
+        <v>11.274</v>
+      </c>
+      <c r="AB8" t="n">
         <v>12.887</v>
       </c>
-      <c r="AC8">
-        <v>39.369999999999997</v>
-      </c>
-      <c r="AD8">
-        <v>10.372999999999999</v>
-      </c>
-      <c r="AE8">
-        <v>18.149000000000001</v>
+      <c r="AC8" t="n">
+        <v>39.37</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10.373</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>18.149</v>
       </c>
       <c r="AF8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9">
-        <v>8</v>
+      <c r="B9" t="n">
+        <v>8.0</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
@@ -1729,78 +1440,78 @@
         <v>76</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M9" t="s">
-        <v>135</v>
-      </c>
-      <c r="N9">
-        <v>3.0019999999999998</v>
-      </c>
-      <c r="O9">
-        <v>4.0259999999999998</v>
-      </c>
-      <c r="P9">
-        <v>2.3980000000000001</v>
+        <v>138</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.002</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.026</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.398</v>
       </c>
       <c r="Q9" t="s">
-        <v>143</v>
-      </c>
-      <c r="R9">
+        <v>146</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.84</v>
       </c>
       <c r="S9" t="s">
-        <v>153</v>
-      </c>
-      <c r="T9">
-        <v>2.2000000000000002</v>
+        <v>157</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.2</v>
       </c>
       <c r="U9" t="s">
-        <v>163</v>
-      </c>
-      <c r="V9">
+        <v>168</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.74</v>
       </c>
       <c r="W9" t="s">
-        <v>173</v>
-      </c>
-      <c r="X9">
+        <v>179</v>
+      </c>
+      <c r="X9" t="n">
         <v>2.36</v>
       </c>
-      <c r="Y9">
-        <v>13.071999999999999</v>
-      </c>
-      <c r="Z9">
+      <c r="Y9" t="n">
+        <v>13.072</v>
+      </c>
+      <c r="Z9" t="n">
         <v>11.455</v>
       </c>
-      <c r="AA9">
-        <v>8.5760000000000005</v>
-      </c>
-      <c r="AB9">
-        <v>19.568999999999999</v>
-      </c>
-      <c r="AC9">
-        <v>15.015000000000001</v>
-      </c>
-      <c r="AD9">
+      <c r="AA9" t="n">
+        <v>8.576</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>19.569</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15.015</v>
+      </c>
+      <c r="AD9" t="n">
         <v>12.837</v>
       </c>
-      <c r="AE9">
-        <v>11.249000000000001</v>
+      <c r="AE9" t="n">
+        <v>11.249</v>
       </c>
       <c r="AF9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10">
-        <v>9</v>
+      <c r="B10" t="n">
+        <v>9.0</v>
       </c>
       <c r="C10" t="s">
         <v>49</v>
@@ -1893,12 +1604,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B11">
-        <v>622</v>
+      <c r="B11" t="n">
+        <v>622.0</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
@@ -1925,78 +1636,78 @@
         <v>78</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M11" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11">
-        <v>1.6639999999999999</v>
-      </c>
-      <c r="O11">
-        <v>5.3879999999999999</v>
-      </c>
-      <c r="P11">
-        <v>4.9930000000000003</v>
+        <v>124</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.664</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5.388</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.993</v>
       </c>
       <c r="Q11" t="s">
-        <v>144</v>
-      </c>
-      <c r="R11">
+        <v>147</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.39</v>
       </c>
       <c r="S11" t="s">
-        <v>154</v>
-      </c>
-      <c r="T11">
+        <v>158</v>
+      </c>
+      <c r="T11" t="n">
         <v>3.76</v>
       </c>
       <c r="U11" t="s">
-        <v>164</v>
-      </c>
-      <c r="V11">
+        <v>169</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.49</v>
       </c>
       <c r="W11" t="s">
-        <v>174</v>
-      </c>
-      <c r="X11">
+        <v>180</v>
+      </c>
+      <c r="X11" t="n">
         <v>3.16</v>
       </c>
-      <c r="Y11">
-        <v>18.553000000000001</v>
-      </c>
-      <c r="Z11">
-        <v>33.332999999999998</v>
-      </c>
-      <c r="AA11">
+      <c r="Y11" t="n">
+        <v>18.553</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>33.333</v>
+      </c>
+      <c r="AA11" t="n">
         <v>13.587</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="n">
         <v>15.106</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" t="n">
         <v>48.78</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="n">
         <v>11.074</v>
       </c>
-      <c r="AE11">
-        <v>19.920000000000002</v>
+      <c r="AE11" t="n">
+        <v>19.92</v>
       </c>
       <c r="AF11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12">
-        <v>623</v>
+      <c r="B12" t="n">
+        <v>623.0</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -2023,78 +1734,78 @@
         <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M12" t="s">
-        <v>136</v>
-      </c>
-      <c r="N12">
-        <v>10.372999999999999</v>
-      </c>
-      <c r="O12">
-        <v>6.3819999999999997</v>
-      </c>
-      <c r="P12">
+        <v>139</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10.373</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6.382</v>
+      </c>
+      <c r="P12" t="n">
         <v>1.365</v>
       </c>
       <c r="Q12" t="s">
-        <v>145</v>
-      </c>
-      <c r="R12">
+        <v>148</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.61</v>
       </c>
       <c r="S12" t="s">
-        <v>155</v>
-      </c>
-      <c r="T12">
+        <v>159</v>
+      </c>
+      <c r="T12" t="n">
         <v>2.74</v>
       </c>
       <c r="U12" t="s">
-        <v>165</v>
-      </c>
-      <c r="V12">
+        <v>170</v>
+      </c>
+      <c r="V12" t="n">
         <v>2.04</v>
       </c>
       <c r="W12" t="s">
-        <v>175</v>
-      </c>
-      <c r="X12">
+        <v>181</v>
+      </c>
+      <c r="X12" t="n">
         <v>2.02</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="n">
         <v>33.67</v>
       </c>
-      <c r="Z12">
-        <v>10.582000000000001</v>
-      </c>
-      <c r="AA12">
+      <c r="Z12" t="n">
+        <v>10.582</v>
+      </c>
+      <c r="AA12" t="n">
         <v>13.532</v>
       </c>
-      <c r="AB12">
-        <v>86.206999999999994</v>
-      </c>
-      <c r="AC12">
-        <v>8.5030000000000001</v>
-      </c>
-      <c r="AD12">
-        <v>34.601999999999997</v>
-      </c>
-      <c r="AE12">
+      <c r="AB12" t="n">
+        <v>86.207</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.503</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>34.602</v>
+      </c>
+      <c r="AE12" t="n">
         <v>10.87</v>
       </c>
       <c r="AF12" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>42</v>
       </c>
-      <c r="B13">
-        <v>624</v>
+      <c r="B13" t="n">
+        <v>624.0</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -2121,78 +1832,78 @@
         <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s">
-        <v>135</v>
-      </c>
-      <c r="N13">
-        <v>3.9860000000000002</v>
-      </c>
-      <c r="O13">
+        <v>138</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.986</v>
+      </c>
+      <c r="O13" t="n">
         <v>3.008</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>2.4</v>
       </c>
       <c r="Q13" t="s">
-        <v>125</v>
-      </c>
-      <c r="R13">
+        <v>127</v>
+      </c>
+      <c r="R13" t="n">
         <v>4.03</v>
       </c>
       <c r="S13" t="s">
-        <v>156</v>
-      </c>
-      <c r="T13">
+        <v>160</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.33</v>
       </c>
       <c r="U13" t="s">
-        <v>166</v>
-      </c>
-      <c r="V13">
+        <v>171</v>
+      </c>
+      <c r="V13" t="n">
         <v>3.09</v>
       </c>
       <c r="W13" t="s">
-        <v>176</v>
-      </c>
-      <c r="X13">
+        <v>182</v>
+      </c>
+      <c r="X13" t="n">
         <v>1.48</v>
       </c>
-      <c r="Y13">
-        <v>7.8620000000000001</v>
-      </c>
-      <c r="Z13">
-        <v>5.5339999999999998</v>
-      </c>
-      <c r="AA13">
+      <c r="Y13" t="n">
+        <v>7.862</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>5.534</v>
+      </c>
+      <c r="AA13" t="n">
         <v>7.782</v>
       </c>
-      <c r="AB13">
-        <v>22.123999999999999</v>
-      </c>
-      <c r="AC13">
+      <c r="AB13" t="n">
+        <v>22.124</v>
+      </c>
+      <c r="AC13" t="n">
         <v>10.965</v>
       </c>
-      <c r="AD13">
-        <v>21.882000000000001</v>
-      </c>
-      <c r="AE13">
-        <v>15.407999999999999</v>
+      <c r="AD13" t="n">
+        <v>21.882</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15.408</v>
       </c>
       <c r="AF13" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>43</v>
       </c>
-      <c r="B14">
-        <v>625</v>
+      <c r="B14" t="n">
+        <v>625.0</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -2285,12 +1996,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="B15">
-        <v>626</v>
+      <c r="B15" t="n">
+        <v>626.0</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -2383,12 +2094,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B16">
-        <v>627</v>
+      <c r="B16" t="n">
+        <v>627.0</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -2481,12 +2192,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="B17">
-        <v>628</v>
+      <c r="B17" t="n">
+        <v>628.0</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
@@ -2579,12 +2290,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>47</v>
       </c>
-      <c r="B18">
-        <v>629</v>
+      <c r="B18" t="n">
+        <v>629.0</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
@@ -2611,78 +2322,78 @@
         <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" t="s">
-        <v>137</v>
-      </c>
-      <c r="N18">
-        <v>1.6259999999999999</v>
-      </c>
-      <c r="O18">
+        <v>140</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.626</v>
+      </c>
+      <c r="O18" t="n">
         <v>4.968</v>
       </c>
-      <c r="P18">
-        <v>5.6470000000000002</v>
+      <c r="P18" t="n">
+        <v>5.647</v>
       </c>
       <c r="Q18" t="s">
-        <v>146</v>
-      </c>
-      <c r="R18">
+        <v>149</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.64</v>
       </c>
       <c r="S18" t="s">
-        <v>157</v>
-      </c>
-      <c r="T18">
+        <v>161</v>
+      </c>
+      <c r="T18" t="n">
         <v>2.61</v>
       </c>
       <c r="U18" t="s">
-        <v>167</v>
-      </c>
-      <c r="V18">
+        <v>172</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.76</v>
       </c>
       <c r="W18" t="s">
-        <v>177</v>
-      </c>
-      <c r="X18">
+        <v>183</v>
+      </c>
+      <c r="X18" t="n">
         <v>2.35</v>
       </c>
-      <c r="Y18">
-        <v>11.298999999999999</v>
-      </c>
-      <c r="Z18">
-        <v>22.989000000000001</v>
-      </c>
-      <c r="AA18">
-        <v>10.763999999999999</v>
-      </c>
-      <c r="AB18">
+      <c r="Y18" t="n">
+        <v>11.299</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>22.989</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>10.764</v>
+      </c>
+      <c r="AB18" t="n">
         <v>10.593</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" t="n">
         <v>43.86</v>
       </c>
-      <c r="AD18">
-        <v>10.101000000000001</v>
-      </c>
-      <c r="AE18">
-        <v>20.533999999999999</v>
+      <c r="AD18" t="n">
+        <v>10.101</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>20.534</v>
       </c>
       <c r="AF18" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>48</v>
       </c>
-      <c r="B19">
-        <v>630</v>
+      <c r="B19" t="n">
+        <v>630.0</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
@@ -2776,6 +2487,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/picks_fixtures_prediction_cloned.xlsx
+++ b/picks_fixtures_prediction_cloned.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -3836,14 +3836,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
